--- a/data/triageOutput/validationOutput.xlsx
+++ b/data/triageOutput/validationOutput.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelgehrung/Desktop/cytosponge-triage/data/triageOutput/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CD75E8-B01C-B347-8455-8950DB08E6A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090FEF9B-CE0F-7E4E-BCDF-007F834D52B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,1592 +64,1592 @@
     <t>Triage class</t>
   </si>
   <si>
-    <t>BEST2_NOT_0005</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0014</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0018</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0020</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0028</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0030</t>
-  </si>
-  <si>
-    <t>BEST2_NTE_0010</t>
-  </si>
-  <si>
-    <t>BEST2_NTE_0016</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0087</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0026</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0031</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0096</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0109</t>
-  </si>
-  <si>
-    <t>BEST2_NTE_0002</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0228</t>
-  </si>
-  <si>
-    <t>BEST2_STM_0003</t>
-  </si>
-  <si>
-    <t>BEST2_STM_0005</t>
-  </si>
-  <si>
-    <t>BEST2_NTE_0011</t>
-  </si>
-  <si>
-    <t>BEST2_NTE_0013</t>
-  </si>
-  <si>
-    <t>BEST2_NTE_0021</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0002</t>
-  </si>
-  <si>
-    <t>BEST2_NTE_0004</t>
-  </si>
-  <si>
-    <t>BEST2_CDD_0009</t>
-  </si>
-  <si>
-    <t>BEST2_CDD_0010</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0005</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0009</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0032</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0037</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0047</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0053</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0347</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0384_R1</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0491</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0493</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0230</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0203</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0341</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0381</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0389</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0429</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0478</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0495</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0496</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0084</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0091</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0131</t>
-  </si>
-  <si>
-    <t>BEST2_NTE_0001</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0076</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0006</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0016</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0221</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0031</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0033</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0229</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0050</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0061</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0069</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0077</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0079</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0129</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0056</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0070</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0074</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0291</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0007</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0012</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0060</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0021</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0026</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0057</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0060</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0110</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0004</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0007</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0020</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0023</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0028</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0029</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0035</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0038</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0039</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0042</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0255</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0304</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0456</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0492</t>
-  </si>
-  <si>
-    <t>BEST2_NTY_0006</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0073</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0075</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0080</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0082</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0085</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0089</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0090</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0097</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0098</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0100</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0101</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0113</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0121</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0124</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0259</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0263</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0264</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0031</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0034</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0039_R1</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0055</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0057</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0061</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0093</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0103</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0111</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0120</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0123</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0128</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0443</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0449_R1</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0467</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0472</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0146</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0148</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0157</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0189</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0128</t>
-  </si>
-  <si>
-    <t>BEST2_NTY_0023</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0013</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0032</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0036</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0039</t>
-  </si>
-  <si>
-    <t>BEST2_STM_0002</t>
-  </si>
-  <si>
-    <t>BEST2_STM_0015</t>
-  </si>
-  <si>
-    <t>BEST2_STM_0016</t>
-  </si>
-  <si>
-    <t>BEST2_STY_0007</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0001</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0229</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0233</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0222</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0095</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0096</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0070</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0232</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0212</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0062</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0063</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0235</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0215</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0055</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0161</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0081</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0077</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0234</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0160</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0162</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0157</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0158</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0164</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0179</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0175</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0173</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0169</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0167</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0163</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0026</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0018</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0021</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0216</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0217</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0219</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0221</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0223</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0225</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0227</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0228</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0236</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0237</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0240</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0258</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0270</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0242</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0244</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0246</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0247</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0250</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0251</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0255</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0265</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0266</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0269</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0021</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0022</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0041</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0047</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0073</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0075</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0104</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0110</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0121</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0162</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0250</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0342</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0386</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0403</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0470</t>
-  </si>
-  <si>
-    <t>BEST2_CDD_0003</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0003</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0028</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0035</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0078</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0140</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0007</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0024</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0045</t>
-  </si>
-  <si>
-    <t>BEST2_NTE_0023</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0026</t>
-  </si>
-  <si>
-    <t>BEST2_STM_0006</t>
-  </si>
-  <si>
-    <t>BEST2_STM_0012</t>
-  </si>
-  <si>
-    <t>BEST2_STY_0015</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0006</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0025</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0032</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0036</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0046</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0047</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0049</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0054</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0060</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0072</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0076</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0126</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0152</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0156</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0168</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0172</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0180</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0222</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0224</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0231</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0260</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0191</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0199</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0263</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0016</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0019</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0142</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0145</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0149</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0172</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0179</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0197</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0014</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0143</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0146</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0173</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0180</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0198</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0264</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0015</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0018</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0144</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0148</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0171</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0265</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0266</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0267</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0268</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0270</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0271</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0272</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0273</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0275</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0276</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0279</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0280</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0281</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0282</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0285</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0286</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0287</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0288</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0289</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0290</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0292</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0293</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0294</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0296</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0297</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0298</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0299</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0300</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0161</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0164</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0167</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0169</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0171</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0172</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0175</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0178</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0191</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0192</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0195</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0198</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0199</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0201</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0205</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0002</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0409</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0410</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0421</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0422</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0424</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0426</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0428</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0481</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0483</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0484</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0488</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0490</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0375</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0379</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0393</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0397</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0395</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0402</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0404</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0059</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0406</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0407</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0003</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0005</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0010</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0351</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0352</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0353</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0354</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0355</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0356</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0358</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0359</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0360</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0363</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0364</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0366</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0367</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0369</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0370</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0371</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0373</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0374</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0376</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0378</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0398</t>
-  </si>
-  <si>
-    <t>BEST2_PBH_0002</t>
-  </si>
-  <si>
-    <t>BEST2_PBH_0003</t>
-  </si>
-  <si>
-    <t>BEST2_PBH_0005</t>
-  </si>
-  <si>
-    <t>BEST2_PBH_0006</t>
-  </si>
-  <si>
-    <t>BEST2_PHH_0001</t>
-  </si>
-  <si>
-    <t>BEST2_PHH_0004</t>
-  </si>
-  <si>
-    <t>BEST2_PHH_0006</t>
-  </si>
-  <si>
-    <t>BEST2_PHH_0009</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0001</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0003</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0005</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0006</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0007</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0009</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0010</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0016</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0017</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0018</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0022</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0027</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0028</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0029</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0030</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0031</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0034</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0037</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0040</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0042</t>
-  </si>
-  <si>
-    <t>BEST2_POR_0043</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0223</t>
-  </si>
-  <si>
-    <t>BEST2_PWH_0002</t>
-  </si>
-  <si>
-    <t>BEST2_PWH_0003</t>
-  </si>
-  <si>
-    <t>BEST2_PWH_0004</t>
-  </si>
-  <si>
-    <t>BEST2_STY_0001</t>
-  </si>
-  <si>
-    <t>BEST2_STY_0003</t>
-  </si>
-  <si>
-    <t>BEST2_STY_0005</t>
-  </si>
-  <si>
-    <t>BEST2_STY_0010</t>
-  </si>
-  <si>
-    <t>BEST2_STY_0012</t>
-  </si>
-  <si>
-    <t>BEST2_STY_0013</t>
-  </si>
-  <si>
-    <t>BEST2_STY_0016</t>
-  </si>
-  <si>
-    <t>BEST2_STY_0017</t>
-  </si>
-  <si>
-    <t>BEST2_STY_0018</t>
-  </si>
-  <si>
-    <t>BEST2_STY_0020</t>
-  </si>
-  <si>
-    <t>BEST2_STY_0021</t>
-  </si>
-  <si>
-    <t>BEST2_STY_0022</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0009</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0212</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0213</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0215</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0107</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0108</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0109</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0110</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0111</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0330</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0507</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0092</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0094</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0096</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0098</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0100</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0217</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0218</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0219</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0220</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0311</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0312</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0313</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0316</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0317</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0318</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0320</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0323</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0325</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0326</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0327</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0328</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0329</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0239</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0093</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0095</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0103</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0113</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0082</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0115</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0116</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0118</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0119</t>
-  </si>
-  <si>
-    <t>BEST2_NEW_0120</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0063</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0064</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0068</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0070</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0083</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0069</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0084</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0085</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0087</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0088</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0113</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0114</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0118</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0119</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0141</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0142</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0143</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0144</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0146</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0147</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0148</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0149</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0150</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0201</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0202</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0204</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0205</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0206</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0208</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0238</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0272</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0278</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0280</t>
-  </si>
-  <si>
-    <t>BEST2_WEL_0003</t>
-  </si>
-  <si>
-    <t>BEST2_WEL_0004</t>
-  </si>
-  <si>
-    <t>BEST2_WEL_0006</t>
-  </si>
-  <si>
-    <t>BEST2_WEL_0007</t>
-  </si>
-  <si>
-    <t>BEST2_WEL_0010</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0071</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0072</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0073</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0074</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0075</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0077</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0078</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0133</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0134</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0135</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0136</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0138</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0139</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0140</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0181</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0182</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0183</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0184</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0185</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0187</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0189</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0190</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0283</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0284</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0286</t>
-  </si>
-  <si>
-    <t>BEST2_UCL_0287</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0336</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0338</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0340</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0055</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0058</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0224</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0226</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0052</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0056</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0227</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0240</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0331</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0332</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0333</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0334</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0335</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0337</t>
-  </si>
-  <si>
-    <t>BEST2_CAM_0339</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0054</t>
-  </si>
-  <si>
-    <t>BEST2_NOT_0057</t>
-  </si>
-  <si>
     <t>Gastric count</t>
   </si>
   <si>
     <t>TFF3 positive count</t>
+  </si>
+  <si>
+    <t>BEST2_V_1</t>
+  </si>
+  <si>
+    <t>BEST2_V_2</t>
+  </si>
+  <si>
+    <t>BEST2_V_3</t>
+  </si>
+  <si>
+    <t>BEST2_V_4</t>
+  </si>
+  <si>
+    <t>BEST2_V_5</t>
+  </si>
+  <si>
+    <t>BEST2_V_6</t>
+  </si>
+  <si>
+    <t>BEST2_V_7</t>
+  </si>
+  <si>
+    <t>BEST2_V_8</t>
+  </si>
+  <si>
+    <t>BEST2_V_9</t>
+  </si>
+  <si>
+    <t>BEST2_V_10</t>
+  </si>
+  <si>
+    <t>BEST2_V_11</t>
+  </si>
+  <si>
+    <t>BEST2_V_12</t>
+  </si>
+  <si>
+    <t>BEST2_V_13</t>
+  </si>
+  <si>
+    <t>BEST2_V_14</t>
+  </si>
+  <si>
+    <t>BEST2_V_15</t>
+  </si>
+  <si>
+    <t>BEST2_V_16</t>
+  </si>
+  <si>
+    <t>BEST2_V_17</t>
+  </si>
+  <si>
+    <t>BEST2_V_18</t>
+  </si>
+  <si>
+    <t>BEST2_V_19</t>
+  </si>
+  <si>
+    <t>BEST2_V_20</t>
+  </si>
+  <si>
+    <t>BEST2_V_21</t>
+  </si>
+  <si>
+    <t>BEST2_V_22</t>
+  </si>
+  <si>
+    <t>BEST2_V_23</t>
+  </si>
+  <si>
+    <t>BEST2_V_24</t>
+  </si>
+  <si>
+    <t>BEST2_V_25</t>
+  </si>
+  <si>
+    <t>BEST2_V_26</t>
+  </si>
+  <si>
+    <t>BEST2_V_27</t>
+  </si>
+  <si>
+    <t>BEST2_V_28</t>
+  </si>
+  <si>
+    <t>BEST2_V_29</t>
+  </si>
+  <si>
+    <t>BEST2_V_30</t>
+  </si>
+  <si>
+    <t>BEST2_V_31</t>
+  </si>
+  <si>
+    <t>BEST2_V_32</t>
+  </si>
+  <si>
+    <t>BEST2_V_33</t>
+  </si>
+  <si>
+    <t>BEST2_V_34</t>
+  </si>
+  <si>
+    <t>BEST2_V_35</t>
+  </si>
+  <si>
+    <t>BEST2_V_36</t>
+  </si>
+  <si>
+    <t>BEST2_V_37</t>
+  </si>
+  <si>
+    <t>BEST2_V_38</t>
+  </si>
+  <si>
+    <t>BEST2_V_39</t>
+  </si>
+  <si>
+    <t>BEST2_V_40</t>
+  </si>
+  <si>
+    <t>BEST2_V_41</t>
+  </si>
+  <si>
+    <t>BEST2_V_42</t>
+  </si>
+  <si>
+    <t>BEST2_V_43</t>
+  </si>
+  <si>
+    <t>BEST2_V_44</t>
+  </si>
+  <si>
+    <t>BEST2_V_45</t>
+  </si>
+  <si>
+    <t>BEST2_V_46</t>
+  </si>
+  <si>
+    <t>BEST2_V_47</t>
+  </si>
+  <si>
+    <t>BEST2_V_48</t>
+  </si>
+  <si>
+    <t>BEST2_V_49</t>
+  </si>
+  <si>
+    <t>BEST2_V_50</t>
+  </si>
+  <si>
+    <t>BEST2_V_51</t>
+  </si>
+  <si>
+    <t>BEST2_V_52</t>
+  </si>
+  <si>
+    <t>BEST2_V_53</t>
+  </si>
+  <si>
+    <t>BEST2_V_54</t>
+  </si>
+  <si>
+    <t>BEST2_V_55</t>
+  </si>
+  <si>
+    <t>BEST2_V_56</t>
+  </si>
+  <si>
+    <t>BEST2_V_57</t>
+  </si>
+  <si>
+    <t>BEST2_V_58</t>
+  </si>
+  <si>
+    <t>BEST2_V_59</t>
+  </si>
+  <si>
+    <t>BEST2_V_60</t>
+  </si>
+  <si>
+    <t>BEST2_V_61</t>
+  </si>
+  <si>
+    <t>BEST2_V_62</t>
+  </si>
+  <si>
+    <t>BEST2_V_63</t>
+  </si>
+  <si>
+    <t>BEST2_V_64</t>
+  </si>
+  <si>
+    <t>BEST2_V_65</t>
+  </si>
+  <si>
+    <t>BEST2_V_66</t>
+  </si>
+  <si>
+    <t>BEST2_V_67</t>
+  </si>
+  <si>
+    <t>BEST2_V_68</t>
+  </si>
+  <si>
+    <t>BEST2_V_69</t>
+  </si>
+  <si>
+    <t>BEST2_V_70</t>
+  </si>
+  <si>
+    <t>BEST2_V_71</t>
+  </si>
+  <si>
+    <t>BEST2_V_72</t>
+  </si>
+  <si>
+    <t>BEST2_V_73</t>
+  </si>
+  <si>
+    <t>BEST2_V_74</t>
+  </si>
+  <si>
+    <t>BEST2_V_75</t>
+  </si>
+  <si>
+    <t>BEST2_V_76</t>
+  </si>
+  <si>
+    <t>BEST2_V_77</t>
+  </si>
+  <si>
+    <t>BEST2_V_78</t>
+  </si>
+  <si>
+    <t>BEST2_V_79</t>
+  </si>
+  <si>
+    <t>BEST2_V_80</t>
+  </si>
+  <si>
+    <t>BEST2_V_81</t>
+  </si>
+  <si>
+    <t>BEST2_V_82</t>
+  </si>
+  <si>
+    <t>BEST2_V_83</t>
+  </si>
+  <si>
+    <t>BEST2_V_84</t>
+  </si>
+  <si>
+    <t>BEST2_V_85</t>
+  </si>
+  <si>
+    <t>BEST2_V_86</t>
+  </si>
+  <si>
+    <t>BEST2_V_87</t>
+  </si>
+  <si>
+    <t>BEST2_V_88</t>
+  </si>
+  <si>
+    <t>BEST2_V_89</t>
+  </si>
+  <si>
+    <t>BEST2_V_90</t>
+  </si>
+  <si>
+    <t>BEST2_V_91</t>
+  </si>
+  <si>
+    <t>BEST2_V_92</t>
+  </si>
+  <si>
+    <t>BEST2_V_93</t>
+  </si>
+  <si>
+    <t>BEST2_V_94</t>
+  </si>
+  <si>
+    <t>BEST2_V_95</t>
+  </si>
+  <si>
+    <t>BEST2_V_96</t>
+  </si>
+  <si>
+    <t>BEST2_V_97</t>
+  </si>
+  <si>
+    <t>BEST2_V_98</t>
+  </si>
+  <si>
+    <t>BEST2_V_99</t>
+  </si>
+  <si>
+    <t>BEST2_V_100</t>
+  </si>
+  <si>
+    <t>BEST2_V_101</t>
+  </si>
+  <si>
+    <t>BEST2_V_102</t>
+  </si>
+  <si>
+    <t>BEST2_V_103</t>
+  </si>
+  <si>
+    <t>BEST2_V_104</t>
+  </si>
+  <si>
+    <t>BEST2_V_105</t>
+  </si>
+  <si>
+    <t>BEST2_V_106</t>
+  </si>
+  <si>
+    <t>BEST2_V_107</t>
+  </si>
+  <si>
+    <t>BEST2_V_108</t>
+  </si>
+  <si>
+    <t>BEST2_V_109</t>
+  </si>
+  <si>
+    <t>BEST2_V_110</t>
+  </si>
+  <si>
+    <t>BEST2_V_111</t>
+  </si>
+  <si>
+    <t>BEST2_V_112</t>
+  </si>
+  <si>
+    <t>BEST2_V_113</t>
+  </si>
+  <si>
+    <t>BEST2_V_114</t>
+  </si>
+  <si>
+    <t>BEST2_V_115</t>
+  </si>
+  <si>
+    <t>BEST2_V_116</t>
+  </si>
+  <si>
+    <t>BEST2_V_117</t>
+  </si>
+  <si>
+    <t>BEST2_V_118</t>
+  </si>
+  <si>
+    <t>BEST2_V_119</t>
+  </si>
+  <si>
+    <t>BEST2_V_120</t>
+  </si>
+  <si>
+    <t>BEST2_V_121</t>
+  </si>
+  <si>
+    <t>BEST2_V_122</t>
+  </si>
+  <si>
+    <t>BEST2_V_123</t>
+  </si>
+  <si>
+    <t>BEST2_V_124</t>
+  </si>
+  <si>
+    <t>BEST2_V_125</t>
+  </si>
+  <si>
+    <t>BEST2_V_126</t>
+  </si>
+  <si>
+    <t>BEST2_V_127</t>
+  </si>
+  <si>
+    <t>BEST2_V_128</t>
+  </si>
+  <si>
+    <t>BEST2_V_129</t>
+  </si>
+  <si>
+    <t>BEST2_V_130</t>
+  </si>
+  <si>
+    <t>BEST2_V_131</t>
+  </si>
+  <si>
+    <t>BEST2_V_132</t>
+  </si>
+  <si>
+    <t>BEST2_V_133</t>
+  </si>
+  <si>
+    <t>BEST2_V_134</t>
+  </si>
+  <si>
+    <t>BEST2_V_135</t>
+  </si>
+  <si>
+    <t>BEST2_V_136</t>
+  </si>
+  <si>
+    <t>BEST2_V_137</t>
+  </si>
+  <si>
+    <t>BEST2_V_138</t>
+  </si>
+  <si>
+    <t>BEST2_V_139</t>
+  </si>
+  <si>
+    <t>BEST2_V_140</t>
+  </si>
+  <si>
+    <t>BEST2_V_141</t>
+  </si>
+  <si>
+    <t>BEST2_V_142</t>
+  </si>
+  <si>
+    <t>BEST2_V_143</t>
+  </si>
+  <si>
+    <t>BEST2_V_144</t>
+  </si>
+  <si>
+    <t>BEST2_V_145</t>
+  </si>
+  <si>
+    <t>BEST2_V_146</t>
+  </si>
+  <si>
+    <t>BEST2_V_147</t>
+  </si>
+  <si>
+    <t>BEST2_V_148</t>
+  </si>
+  <si>
+    <t>BEST2_V_149</t>
+  </si>
+  <si>
+    <t>BEST2_V_150</t>
+  </si>
+  <si>
+    <t>BEST2_V_151</t>
+  </si>
+  <si>
+    <t>BEST2_V_152</t>
+  </si>
+  <si>
+    <t>BEST2_V_153</t>
+  </si>
+  <si>
+    <t>BEST2_V_154</t>
+  </si>
+  <si>
+    <t>BEST2_V_155</t>
+  </si>
+  <si>
+    <t>BEST2_V_156</t>
+  </si>
+  <si>
+    <t>BEST2_V_157</t>
+  </si>
+  <si>
+    <t>BEST2_V_158</t>
+  </si>
+  <si>
+    <t>BEST2_V_159</t>
+  </si>
+  <si>
+    <t>BEST2_V_160</t>
+  </si>
+  <si>
+    <t>BEST2_V_161</t>
+  </si>
+  <si>
+    <t>BEST2_V_162</t>
+  </si>
+  <si>
+    <t>BEST2_V_163</t>
+  </si>
+  <si>
+    <t>BEST2_V_164</t>
+  </si>
+  <si>
+    <t>BEST2_V_165</t>
+  </si>
+  <si>
+    <t>BEST2_V_166</t>
+  </si>
+  <si>
+    <t>BEST2_V_167</t>
+  </si>
+  <si>
+    <t>BEST2_V_168</t>
+  </si>
+  <si>
+    <t>BEST2_V_169</t>
+  </si>
+  <si>
+    <t>BEST2_V_170</t>
+  </si>
+  <si>
+    <t>BEST2_V_171</t>
+  </si>
+  <si>
+    <t>BEST2_V_172</t>
+  </si>
+  <si>
+    <t>BEST2_V_173</t>
+  </si>
+  <si>
+    <t>BEST2_V_174</t>
+  </si>
+  <si>
+    <t>BEST2_V_175</t>
+  </si>
+  <si>
+    <t>BEST2_V_176</t>
+  </si>
+  <si>
+    <t>BEST2_V_177</t>
+  </si>
+  <si>
+    <t>BEST2_V_178</t>
+  </si>
+  <si>
+    <t>BEST2_V_179</t>
+  </si>
+  <si>
+    <t>BEST2_V_180</t>
+  </si>
+  <si>
+    <t>BEST2_V_181</t>
+  </si>
+  <si>
+    <t>BEST2_V_182</t>
+  </si>
+  <si>
+    <t>BEST2_V_183</t>
+  </si>
+  <si>
+    <t>BEST2_V_184</t>
+  </si>
+  <si>
+    <t>BEST2_V_185</t>
+  </si>
+  <si>
+    <t>BEST2_V_186</t>
+  </si>
+  <si>
+    <t>BEST2_V_187</t>
+  </si>
+  <si>
+    <t>BEST2_V_188</t>
+  </si>
+  <si>
+    <t>BEST2_V_189</t>
+  </si>
+  <si>
+    <t>BEST2_V_190</t>
+  </si>
+  <si>
+    <t>BEST2_V_191</t>
+  </si>
+  <si>
+    <t>BEST2_V_192</t>
+  </si>
+  <si>
+    <t>BEST2_V_193</t>
+  </si>
+  <si>
+    <t>BEST2_V_194</t>
+  </si>
+  <si>
+    <t>BEST2_V_195</t>
+  </si>
+  <si>
+    <t>BEST2_V_196</t>
+  </si>
+  <si>
+    <t>BEST2_V_197</t>
+  </si>
+  <si>
+    <t>BEST2_V_198</t>
+  </si>
+  <si>
+    <t>BEST2_V_199</t>
+  </si>
+  <si>
+    <t>BEST2_V_200</t>
+  </si>
+  <si>
+    <t>BEST2_V_201</t>
+  </si>
+  <si>
+    <t>BEST2_V_202</t>
+  </si>
+  <si>
+    <t>BEST2_V_203</t>
+  </si>
+  <si>
+    <t>BEST2_V_204</t>
+  </si>
+  <si>
+    <t>BEST2_V_205</t>
+  </si>
+  <si>
+    <t>BEST2_V_206</t>
+  </si>
+  <si>
+    <t>BEST2_V_207</t>
+  </si>
+  <si>
+    <t>BEST2_V_208</t>
+  </si>
+  <si>
+    <t>BEST2_V_209</t>
+  </si>
+  <si>
+    <t>BEST2_V_210</t>
+  </si>
+  <si>
+    <t>BEST2_V_211</t>
+  </si>
+  <si>
+    <t>BEST2_V_212</t>
+  </si>
+  <si>
+    <t>BEST2_V_213</t>
+  </si>
+  <si>
+    <t>BEST2_V_214</t>
+  </si>
+  <si>
+    <t>BEST2_V_215</t>
+  </si>
+  <si>
+    <t>BEST2_V_216</t>
+  </si>
+  <si>
+    <t>BEST2_V_217</t>
+  </si>
+  <si>
+    <t>BEST2_V_218</t>
+  </si>
+  <si>
+    <t>BEST2_V_219</t>
+  </si>
+  <si>
+    <t>BEST2_V_220</t>
+  </si>
+  <si>
+    <t>BEST2_V_221</t>
+  </si>
+  <si>
+    <t>BEST2_V_222</t>
+  </si>
+  <si>
+    <t>BEST2_V_223</t>
+  </si>
+  <si>
+    <t>BEST2_V_224</t>
+  </si>
+  <si>
+    <t>BEST2_V_225</t>
+  </si>
+  <si>
+    <t>BEST2_V_226</t>
+  </si>
+  <si>
+    <t>BEST2_V_227</t>
+  </si>
+  <si>
+    <t>BEST2_V_228</t>
+  </si>
+  <si>
+    <t>BEST2_V_229</t>
+  </si>
+  <si>
+    <t>BEST2_V_230</t>
+  </si>
+  <si>
+    <t>BEST2_V_231</t>
+  </si>
+  <si>
+    <t>BEST2_V_232</t>
+  </si>
+  <si>
+    <t>BEST2_V_233</t>
+  </si>
+  <si>
+    <t>BEST2_V_234</t>
+  </si>
+  <si>
+    <t>BEST2_V_235</t>
+  </si>
+  <si>
+    <t>BEST2_V_236</t>
+  </si>
+  <si>
+    <t>BEST2_V_237</t>
+  </si>
+  <si>
+    <t>BEST2_V_238</t>
+  </si>
+  <si>
+    <t>BEST2_V_239</t>
+  </si>
+  <si>
+    <t>BEST2_V_240</t>
+  </si>
+  <si>
+    <t>BEST2_V_241</t>
+  </si>
+  <si>
+    <t>BEST2_V_242</t>
+  </si>
+  <si>
+    <t>BEST2_V_243</t>
+  </si>
+  <si>
+    <t>BEST2_V_244</t>
+  </si>
+  <si>
+    <t>BEST2_V_245</t>
+  </si>
+  <si>
+    <t>BEST2_V_246</t>
+  </si>
+  <si>
+    <t>BEST2_V_247</t>
+  </si>
+  <si>
+    <t>BEST2_V_248</t>
+  </si>
+  <si>
+    <t>BEST2_V_249</t>
+  </si>
+  <si>
+    <t>BEST2_V_250</t>
+  </si>
+  <si>
+    <t>BEST2_V_251</t>
+  </si>
+  <si>
+    <t>BEST2_V_252</t>
+  </si>
+  <si>
+    <t>BEST2_V_253</t>
+  </si>
+  <si>
+    <t>BEST2_V_254</t>
+  </si>
+  <si>
+    <t>BEST2_V_255</t>
+  </si>
+  <si>
+    <t>BEST2_V_256</t>
+  </si>
+  <si>
+    <t>BEST2_V_257</t>
+  </si>
+  <si>
+    <t>BEST2_V_258</t>
+  </si>
+  <si>
+    <t>BEST2_V_259</t>
+  </si>
+  <si>
+    <t>BEST2_V_260</t>
+  </si>
+  <si>
+    <t>BEST2_V_261</t>
+  </si>
+  <si>
+    <t>BEST2_V_262</t>
+  </si>
+  <si>
+    <t>BEST2_V_263</t>
+  </si>
+  <si>
+    <t>BEST2_V_264</t>
+  </si>
+  <si>
+    <t>BEST2_V_265</t>
+  </si>
+  <si>
+    <t>BEST2_V_266</t>
+  </si>
+  <si>
+    <t>BEST2_V_267</t>
+  </si>
+  <si>
+    <t>BEST2_V_268</t>
+  </si>
+  <si>
+    <t>BEST2_V_269</t>
+  </si>
+  <si>
+    <t>BEST2_V_270</t>
+  </si>
+  <si>
+    <t>BEST2_V_271</t>
+  </si>
+  <si>
+    <t>BEST2_V_272</t>
+  </si>
+  <si>
+    <t>BEST2_V_273</t>
+  </si>
+  <si>
+    <t>BEST2_V_274</t>
+  </si>
+  <si>
+    <t>BEST2_V_275</t>
+  </si>
+  <si>
+    <t>BEST2_V_276</t>
+  </si>
+  <si>
+    <t>BEST2_V_277</t>
+  </si>
+  <si>
+    <t>BEST2_V_278</t>
+  </si>
+  <si>
+    <t>BEST2_V_279</t>
+  </si>
+  <si>
+    <t>BEST2_V_280</t>
+  </si>
+  <si>
+    <t>BEST2_V_281</t>
+  </si>
+  <si>
+    <t>BEST2_V_282</t>
+  </si>
+  <si>
+    <t>BEST2_V_283</t>
+  </si>
+  <si>
+    <t>BEST2_V_284</t>
+  </si>
+  <si>
+    <t>BEST2_V_285</t>
+  </si>
+  <si>
+    <t>BEST2_V_286</t>
+  </si>
+  <si>
+    <t>BEST2_V_287</t>
+  </si>
+  <si>
+    <t>BEST2_V_288</t>
+  </si>
+  <si>
+    <t>BEST2_V_289</t>
+  </si>
+  <si>
+    <t>BEST2_V_290</t>
+  </si>
+  <si>
+    <t>BEST2_V_291</t>
+  </si>
+  <si>
+    <t>BEST2_V_292</t>
+  </si>
+  <si>
+    <t>BEST2_V_293</t>
+  </si>
+  <si>
+    <t>BEST2_V_294</t>
+  </si>
+  <si>
+    <t>BEST2_V_295</t>
+  </si>
+  <si>
+    <t>BEST2_V_296</t>
+  </si>
+  <si>
+    <t>BEST2_V_297</t>
+  </si>
+  <si>
+    <t>BEST2_V_298</t>
+  </si>
+  <si>
+    <t>BEST2_V_299</t>
+  </si>
+  <si>
+    <t>BEST2_V_300</t>
+  </si>
+  <si>
+    <t>BEST2_V_301</t>
+  </si>
+  <si>
+    <t>BEST2_V_302</t>
+  </si>
+  <si>
+    <t>BEST2_V_303</t>
+  </si>
+  <si>
+    <t>BEST2_V_304</t>
+  </si>
+  <si>
+    <t>BEST2_V_305</t>
+  </si>
+  <si>
+    <t>BEST2_V_306</t>
+  </si>
+  <si>
+    <t>BEST2_V_307</t>
+  </si>
+  <si>
+    <t>BEST2_V_308</t>
+  </si>
+  <si>
+    <t>BEST2_V_309</t>
+  </si>
+  <si>
+    <t>BEST2_V_310</t>
+  </si>
+  <si>
+    <t>BEST2_V_311</t>
+  </si>
+  <si>
+    <t>BEST2_V_312</t>
+  </si>
+  <si>
+    <t>BEST2_V_313</t>
+  </si>
+  <si>
+    <t>BEST2_V_314</t>
+  </si>
+  <si>
+    <t>BEST2_V_315</t>
+  </si>
+  <si>
+    <t>BEST2_V_316</t>
+  </si>
+  <si>
+    <t>BEST2_V_317</t>
+  </si>
+  <si>
+    <t>BEST2_V_318</t>
+  </si>
+  <si>
+    <t>BEST2_V_319</t>
+  </si>
+  <si>
+    <t>BEST2_V_320</t>
+  </si>
+  <si>
+    <t>BEST2_V_321</t>
+  </si>
+  <si>
+    <t>BEST2_V_322</t>
+  </si>
+  <si>
+    <t>BEST2_V_323</t>
+  </si>
+  <si>
+    <t>BEST2_V_324</t>
+  </si>
+  <si>
+    <t>BEST2_V_325</t>
+  </si>
+  <si>
+    <t>BEST2_V_326</t>
+  </si>
+  <si>
+    <t>BEST2_V_327</t>
+  </si>
+  <si>
+    <t>BEST2_V_328</t>
+  </si>
+  <si>
+    <t>BEST2_V_329</t>
+  </si>
+  <si>
+    <t>BEST2_V_330</t>
+  </si>
+  <si>
+    <t>BEST2_V_331</t>
+  </si>
+  <si>
+    <t>BEST2_V_332</t>
+  </si>
+  <si>
+    <t>BEST2_V_333</t>
+  </si>
+  <si>
+    <t>BEST2_V_334</t>
+  </si>
+  <si>
+    <t>BEST2_V_335</t>
+  </si>
+  <si>
+    <t>BEST2_V_336</t>
+  </si>
+  <si>
+    <t>BEST2_V_337</t>
+  </si>
+  <si>
+    <t>BEST2_V_338</t>
+  </si>
+  <si>
+    <t>BEST2_V_339</t>
+  </si>
+  <si>
+    <t>BEST2_V_340</t>
+  </si>
+  <si>
+    <t>BEST2_V_341</t>
+  </si>
+  <si>
+    <t>BEST2_V_342</t>
+  </si>
+  <si>
+    <t>BEST2_V_343</t>
+  </si>
+  <si>
+    <t>BEST2_V_344</t>
+  </si>
+  <si>
+    <t>BEST2_V_345</t>
+  </si>
+  <si>
+    <t>BEST2_V_346</t>
+  </si>
+  <si>
+    <t>BEST2_V_347</t>
+  </si>
+  <si>
+    <t>BEST2_V_348</t>
+  </si>
+  <si>
+    <t>BEST2_V_349</t>
+  </si>
+  <si>
+    <t>BEST2_V_350</t>
+  </si>
+  <si>
+    <t>BEST2_V_351</t>
+  </si>
+  <si>
+    <t>BEST2_V_352</t>
+  </si>
+  <si>
+    <t>BEST2_V_353</t>
+  </si>
+  <si>
+    <t>BEST2_V_354</t>
+  </si>
+  <si>
+    <t>BEST2_V_355</t>
+  </si>
+  <si>
+    <t>BEST2_V_356</t>
+  </si>
+  <si>
+    <t>BEST2_V_357</t>
+  </si>
+  <si>
+    <t>BEST2_V_358</t>
+  </si>
+  <si>
+    <t>BEST2_V_359</t>
+  </si>
+  <si>
+    <t>BEST2_V_360</t>
+  </si>
+  <si>
+    <t>BEST2_V_361</t>
+  </si>
+  <si>
+    <t>BEST2_V_362</t>
+  </si>
+  <si>
+    <t>BEST2_V_363</t>
+  </si>
+  <si>
+    <t>BEST2_V_364</t>
+  </si>
+  <si>
+    <t>BEST2_V_365</t>
+  </si>
+  <si>
+    <t>BEST2_V_366</t>
+  </si>
+  <si>
+    <t>BEST2_V_367</t>
+  </si>
+  <si>
+    <t>BEST2_V_368</t>
+  </si>
+  <si>
+    <t>BEST2_V_369</t>
+  </si>
+  <si>
+    <t>BEST2_V_370</t>
+  </si>
+  <si>
+    <t>BEST2_V_371</t>
+  </si>
+  <si>
+    <t>BEST2_V_372</t>
+  </si>
+  <si>
+    <t>BEST2_V_373</t>
+  </si>
+  <si>
+    <t>BEST2_V_374</t>
+  </si>
+  <si>
+    <t>BEST2_V_375</t>
+  </si>
+  <si>
+    <t>BEST2_V_376</t>
+  </si>
+  <si>
+    <t>BEST2_V_377</t>
+  </si>
+  <si>
+    <t>BEST2_V_378</t>
+  </si>
+  <si>
+    <t>BEST2_V_379</t>
+  </si>
+  <si>
+    <t>BEST2_V_380</t>
+  </si>
+  <si>
+    <t>BEST2_V_381</t>
+  </si>
+  <si>
+    <t>BEST2_V_382</t>
+  </si>
+  <si>
+    <t>BEST2_V_383</t>
+  </si>
+  <si>
+    <t>BEST2_V_384</t>
+  </si>
+  <si>
+    <t>BEST2_V_385</t>
+  </si>
+  <si>
+    <t>BEST2_V_386</t>
+  </si>
+  <si>
+    <t>BEST2_V_387</t>
+  </si>
+  <si>
+    <t>BEST2_V_388</t>
+  </si>
+  <si>
+    <t>BEST2_V_389</t>
+  </si>
+  <si>
+    <t>BEST2_V_390</t>
+  </si>
+  <si>
+    <t>BEST2_V_391</t>
+  </si>
+  <si>
+    <t>BEST2_V_392</t>
+  </si>
+  <si>
+    <t>BEST2_V_393</t>
+  </si>
+  <si>
+    <t>BEST2_V_394</t>
+  </si>
+  <si>
+    <t>BEST2_V_395</t>
+  </si>
+  <si>
+    <t>BEST2_V_396</t>
+  </si>
+  <si>
+    <t>BEST2_V_397</t>
+  </si>
+  <si>
+    <t>BEST2_V_398</t>
+  </si>
+  <si>
+    <t>BEST2_V_399</t>
+  </si>
+  <si>
+    <t>BEST2_V_400</t>
+  </si>
+  <si>
+    <t>BEST2_V_401</t>
+  </si>
+  <si>
+    <t>BEST2_V_402</t>
+  </si>
+  <si>
+    <t>BEST2_V_403</t>
+  </si>
+  <si>
+    <t>BEST2_V_404</t>
+  </si>
+  <si>
+    <t>BEST2_V_405</t>
+  </si>
+  <si>
+    <t>BEST2_V_406</t>
+  </si>
+  <si>
+    <t>BEST2_V_407</t>
+  </si>
+  <si>
+    <t>BEST2_V_408</t>
+  </si>
+  <si>
+    <t>BEST2_V_409</t>
+  </si>
+  <si>
+    <t>BEST2_V_410</t>
+  </si>
+  <si>
+    <t>BEST2_V_411</t>
+  </si>
+  <si>
+    <t>BEST2_V_412</t>
+  </si>
+  <si>
+    <t>BEST2_V_413</t>
+  </si>
+  <si>
+    <t>BEST2_V_414</t>
+  </si>
+  <si>
+    <t>BEST2_V_415</t>
+  </si>
+  <si>
+    <t>BEST2_V_416</t>
+  </si>
+  <si>
+    <t>BEST2_V_417</t>
+  </si>
+  <si>
+    <t>BEST2_V_418</t>
+  </si>
+  <si>
+    <t>BEST2_V_419</t>
+  </si>
+  <si>
+    <t>BEST2_V_420</t>
+  </si>
+  <si>
+    <t>BEST2_V_421</t>
+  </si>
+  <si>
+    <t>BEST2_V_422</t>
+  </si>
+  <si>
+    <t>BEST2_V_423</t>
+  </si>
+  <si>
+    <t>BEST2_V_424</t>
+  </si>
+  <si>
+    <t>BEST2_V_425</t>
+  </si>
+  <si>
+    <t>BEST2_V_426</t>
+  </si>
+  <si>
+    <t>BEST2_V_427</t>
+  </si>
+  <si>
+    <t>BEST2_V_428</t>
+  </si>
+  <si>
+    <t>BEST2_V_429</t>
+  </si>
+  <si>
+    <t>BEST2_V_430</t>
+  </si>
+  <si>
+    <t>BEST2_V_431</t>
+  </si>
+  <si>
+    <t>BEST2_V_432</t>
+  </si>
+  <si>
+    <t>BEST2_V_433</t>
+  </si>
+  <si>
+    <t>BEST2_V_434</t>
+  </si>
+  <si>
+    <t>BEST2_V_435</t>
+  </si>
+  <si>
+    <t>BEST2_V_436</t>
+  </si>
+  <si>
+    <t>BEST2_V_437</t>
+  </si>
+  <si>
+    <t>BEST2_V_438</t>
+  </si>
+  <si>
+    <t>BEST2_V_439</t>
+  </si>
+  <si>
+    <t>BEST2_V_440</t>
+  </si>
+  <si>
+    <t>BEST2_V_441</t>
+  </si>
+  <si>
+    <t>BEST2_V_442</t>
+  </si>
+  <si>
+    <t>BEST2_V_443</t>
+  </si>
+  <si>
+    <t>BEST2_V_444</t>
+  </si>
+  <si>
+    <t>BEST2_V_445</t>
+  </si>
+  <si>
+    <t>BEST2_V_446</t>
+  </si>
+  <si>
+    <t>BEST2_V_447</t>
+  </si>
+  <si>
+    <t>BEST2_V_448</t>
+  </si>
+  <si>
+    <t>BEST2_V_449</t>
+  </si>
+  <si>
+    <t>BEST2_V_450</t>
+  </si>
+  <si>
+    <t>BEST2_V_451</t>
+  </si>
+  <si>
+    <t>BEST2_V_452</t>
+  </si>
+  <si>
+    <t>BEST2_V_453</t>
+  </si>
+  <si>
+    <t>BEST2_V_454</t>
+  </si>
+  <si>
+    <t>BEST2_V_455</t>
+  </si>
+  <si>
+    <t>BEST2_V_456</t>
+  </si>
+  <si>
+    <t>BEST2_V_457</t>
+  </si>
+  <si>
+    <t>BEST2_V_458</t>
+  </si>
+  <si>
+    <t>BEST2_V_459</t>
+  </si>
+  <si>
+    <t>BEST2_V_460</t>
+  </si>
+  <si>
+    <t>BEST2_V_461</t>
+  </si>
+  <si>
+    <t>BEST2_V_462</t>
+  </si>
+  <si>
+    <t>BEST2_V_463</t>
+  </si>
+  <si>
+    <t>BEST2_V_464</t>
+  </si>
+  <si>
+    <t>BEST2_V_465</t>
+  </si>
+  <si>
+    <t>BEST2_V_466</t>
+  </si>
+  <si>
+    <t>BEST2_V_467</t>
+  </si>
+  <si>
+    <t>BEST2_V_468</t>
+  </si>
+  <si>
+    <t>BEST2_V_469</t>
+  </si>
+  <si>
+    <t>BEST2_V_470</t>
+  </si>
+  <si>
+    <t>BEST2_V_471</t>
+  </si>
+  <si>
+    <t>BEST2_V_472</t>
+  </si>
+  <si>
+    <t>BEST2_V_473</t>
+  </si>
+  <si>
+    <t>BEST2_V_474</t>
+  </si>
+  <si>
+    <t>BEST2_V_475</t>
+  </si>
+  <si>
+    <t>BEST2_V_476</t>
+  </si>
+  <si>
+    <t>BEST2_V_477</t>
+  </si>
+  <si>
+    <t>BEST2_V_478</t>
+  </si>
+  <si>
+    <t>BEST2_V_479</t>
+  </si>
+  <si>
+    <t>BEST2_V_480</t>
+  </si>
+  <si>
+    <t>BEST2_V_481</t>
+  </si>
+  <si>
+    <t>BEST2_V_482</t>
+  </si>
+  <si>
+    <t>BEST2_V_483</t>
+  </si>
+  <si>
+    <t>BEST2_V_484</t>
+  </si>
+  <si>
+    <t>BEST2_V_485</t>
+  </si>
+  <si>
+    <t>BEST2_V_486</t>
+  </si>
+  <si>
+    <t>BEST2_V_487</t>
+  </si>
+  <si>
+    <t>BEST2_V_488</t>
+  </si>
+  <si>
+    <t>BEST2_V_489</t>
+  </si>
+  <si>
+    <t>BEST2_V_490</t>
+  </si>
+  <si>
+    <t>BEST2_V_491</t>
+  </si>
+  <si>
+    <t>BEST2_V_492</t>
+  </si>
+  <si>
+    <t>BEST2_V_493</t>
+  </si>
+  <si>
+    <t>BEST2_V_494</t>
+  </si>
+  <si>
+    <t>BEST2_V_495</t>
+  </si>
+  <si>
+    <t>BEST2_V_496</t>
+  </si>
+  <si>
+    <t>BEST2_V_497</t>
+  </si>
+  <si>
+    <t>BEST2_V_498</t>
+  </si>
+  <si>
+    <t>BEST2_V_499</t>
+  </si>
+  <si>
+    <t>BEST2_V_500</t>
+  </si>
+  <si>
+    <t>BEST2_V_501</t>
+  </si>
+  <si>
+    <t>BEST2_V_502</t>
+  </si>
+  <si>
+    <t>BEST2_V_503</t>
+  </si>
+  <si>
+    <t>BEST2_V_504</t>
+  </si>
+  <si>
+    <t>BEST2_V_505</t>
+  </si>
+  <si>
+    <t>BEST2_V_506</t>
+  </si>
+  <si>
+    <t>BEST2_V_507</t>
+  </si>
+  <si>
+    <t>BEST2_V_508</t>
+  </si>
+  <si>
+    <t>BEST2_V_509</t>
+  </si>
+  <si>
+    <t>BEST2_V_510</t>
+  </si>
+  <si>
+    <t>BEST2_V_511</t>
+  </si>
+  <si>
+    <t>BEST2_V_512</t>
+  </si>
+  <si>
+    <t>BEST2_V_513</t>
+  </si>
+  <si>
+    <t>BEST2_V_514</t>
+  </si>
+  <si>
+    <t>BEST2_V_515</t>
+  </si>
+  <si>
+    <t>BEST2_V_516</t>
+  </si>
+  <si>
+    <t>BEST2_V_517</t>
+  </si>
+  <si>
+    <t>BEST2_V_518</t>
+  </si>
+  <si>
+    <t>BEST2_V_519</t>
+  </si>
+  <si>
+    <t>BEST2_V_520</t>
+  </si>
+  <si>
+    <t>BEST2_V_521</t>
+  </si>
+  <si>
+    <t>BEST2_V_522</t>
+  </si>
+  <si>
+    <t>BEST2_V_523</t>
+  </si>
+  <si>
+    <t>BEST2_V_524</t>
+  </si>
+  <si>
+    <t>BEST2_V_525</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1661,6 +1661,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2007,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="U507" sqref="U507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2018,13 +2025,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>539</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>540</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -2068,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>25</v>
@@ -2121,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>820</v>
@@ -2174,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2227,7 +2234,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>339</v>
@@ -2280,7 +2287,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>597</v>
@@ -2333,7 +2340,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>2554</v>
@@ -2386,7 +2393,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>947</v>
@@ -2439,7 +2446,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>1458</v>
@@ -2492,7 +2499,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2545,7 +2552,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>242</v>
@@ -2598,7 +2605,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>4197</v>
@@ -2651,7 +2658,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>1058</v>
@@ -2704,7 +2711,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>1540</v>
@@ -2757,7 +2764,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>606</v>
@@ -2810,7 +2817,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2863,7 +2870,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>4075</v>
@@ -2916,7 +2923,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2969,7 +2976,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>1114</v>
@@ -3022,7 +3029,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>3435</v>
@@ -3075,7 +3082,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>1705</v>
@@ -3128,7 +3135,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>148</v>
@@ -3181,7 +3188,7 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>51</v>
@@ -3234,7 +3241,7 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3287,7 +3294,7 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -3340,7 +3347,7 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>1054</v>
@@ -3393,7 +3400,7 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>379</v>
@@ -3446,7 +3453,7 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -3499,7 +3506,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>447</v>
@@ -3552,7 +3559,7 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>2215</v>
@@ -3605,7 +3612,7 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>841</v>
@@ -3658,7 +3665,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3711,7 +3718,7 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>1471</v>
@@ -3764,7 +3771,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>138</v>
@@ -3817,7 +3824,7 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>198</v>
@@ -3870,7 +3877,7 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>2846</v>
@@ -3923,7 +3930,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>533</v>
@@ -3976,7 +3983,7 @@
         <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>222</v>
@@ -4029,7 +4036,7 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4082,7 +4089,7 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>129</v>
@@ -4135,7 +4142,7 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>514</v>
@@ -4188,7 +4195,7 @@
         <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>946</v>
@@ -4241,7 +4248,7 @@
         <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>1412</v>
@@ -4294,7 +4301,7 @@
         <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>1131</v>
@@ -4347,7 +4354,7 @@
         <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>155</v>
@@ -4400,7 +4407,7 @@
         <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>82</v>
@@ -4453,7 +4460,7 @@
         <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C47">
         <v>134</v>
@@ -4506,7 +4513,7 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C48">
         <v>2080</v>
@@ -4559,7 +4566,7 @@
         <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -4612,7 +4619,7 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>200</v>
@@ -4665,7 +4672,7 @@
         <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C51">
         <v>458</v>
@@ -4718,7 +4725,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C52">
         <v>320</v>
@@ -4771,7 +4778,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C53">
         <v>1722</v>
@@ -4824,7 +4831,7 @@
         <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -4877,7 +4884,7 @@
         <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4930,7 +4937,7 @@
         <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56">
         <v>2478</v>
@@ -4983,7 +4990,7 @@
         <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C57">
         <v>149</v>
@@ -5036,7 +5043,7 @@
         <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C58">
         <v>11</v>
@@ -5089,7 +5096,7 @@
         <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C59">
         <v>1178</v>
@@ -5142,7 +5149,7 @@
         <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60">
         <v>304</v>
@@ -5195,7 +5202,7 @@
         <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C61">
         <v>1982</v>
@@ -5248,7 +5255,7 @@
         <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C62">
         <v>1580</v>
@@ -5301,7 +5308,7 @@
         <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C63">
         <v>259</v>
@@ -5354,7 +5361,7 @@
         <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64">
         <v>79</v>
@@ -5407,7 +5414,7 @@
         <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C65">
         <v>2218</v>
@@ -5460,7 +5467,7 @@
         <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C66">
         <v>946</v>
@@ -5513,7 +5520,7 @@
         <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -5566,7 +5573,7 @@
         <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68">
         <v>711</v>
@@ -5619,7 +5626,7 @@
         <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69">
         <v>197</v>
@@ -5672,7 +5679,7 @@
         <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C70">
         <v>587</v>
@@ -5725,7 +5732,7 @@
         <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C71">
         <v>2682</v>
@@ -5778,7 +5785,7 @@
         <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C72">
         <v>1374</v>
@@ -5831,7 +5838,7 @@
         <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C73">
         <v>144</v>
@@ -5884,7 +5891,7 @@
         <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C74">
         <v>89</v>
@@ -5937,7 +5944,7 @@
         <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C75">
         <v>1427</v>
@@ -5990,7 +5997,7 @@
         <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C76">
         <v>897</v>
@@ -6043,7 +6050,7 @@
         <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C77">
         <v>33</v>
@@ -6096,7 +6103,7 @@
         <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C78">
         <v>217</v>
@@ -6149,7 +6156,7 @@
         <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C79">
         <v>730</v>
@@ -6202,7 +6209,7 @@
         <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C80">
         <v>563</v>
@@ -6255,7 +6262,7 @@
         <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C81">
         <v>205</v>
@@ -6308,7 +6315,7 @@
         <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C82">
         <v>1005</v>
@@ -6361,7 +6368,7 @@
         <v>107</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C83">
         <v>92</v>
@@ -6414,7 +6421,7 @@
         <v>108</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C84">
         <v>3633</v>
@@ -6467,7 +6474,7 @@
         <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C85">
         <v>1430</v>
@@ -6520,7 +6527,7 @@
         <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C86">
         <v>406</v>
@@ -6573,7 +6580,7 @@
         <v>111</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C87">
         <v>2950</v>
@@ -6626,7 +6633,7 @@
         <v>113</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C88">
         <v>391</v>
@@ -6679,7 +6686,7 @@
         <v>115</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C89">
         <v>393</v>
@@ -6732,7 +6739,7 @@
         <v>116</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C90">
         <v>538</v>
@@ -6785,7 +6792,7 @@
         <v>117</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C91">
         <v>1920</v>
@@ -6838,7 +6845,7 @@
         <v>118</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -6891,7 +6898,7 @@
         <v>119</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C93">
         <v>5</v>
@@ -6944,7 +6951,7 @@
         <v>120</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -6997,7 +7004,7 @@
         <v>121</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -7050,7 +7057,7 @@
         <v>122</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C96">
         <v>178</v>
@@ -7103,7 +7110,7 @@
         <v>123</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -7156,7 +7163,7 @@
         <v>124</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C98">
         <v>443</v>
@@ -7209,7 +7216,7 @@
         <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -7262,7 +7269,7 @@
         <v>126</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C100">
         <v>224</v>
@@ -7315,7 +7322,7 @@
         <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C101">
         <v>244</v>
@@ -7368,7 +7375,7 @@
         <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C102">
         <v>620</v>
@@ -7421,7 +7428,7 @@
         <v>135</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -7474,7 +7481,7 @@
         <v>136</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -7527,7 +7534,7 @@
         <v>137</v>
       </c>
       <c r="B105" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C105">
         <v>21</v>
@@ -7580,7 +7587,7 @@
         <v>138</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C106">
         <v>481</v>
@@ -7633,7 +7640,7 @@
         <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C107">
         <v>196</v>
@@ -7686,7 +7693,7 @@
         <v>141</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C108">
         <v>725</v>
@@ -7739,7 +7746,7 @@
         <v>143</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -7792,7 +7799,7 @@
         <v>144</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C110">
         <v>345</v>
@@ -7845,7 +7852,7 @@
         <v>145</v>
       </c>
       <c r="B111" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C111">
         <v>13</v>
@@ -7898,7 +7905,7 @@
         <v>147</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -7951,7 +7958,7 @@
         <v>149</v>
       </c>
       <c r="B113" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C113">
         <v>860</v>
@@ -8004,7 +8011,7 @@
         <v>150</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C114">
         <v>769</v>
@@ -8057,7 +8064,7 @@
         <v>153</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C115">
         <v>48</v>
@@ -8110,7 +8117,7 @@
         <v>155</v>
       </c>
       <c r="B116" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C116">
         <v>598</v>
@@ -8163,7 +8170,7 @@
         <v>156</v>
       </c>
       <c r="B117" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C117">
         <v>66</v>
@@ -8216,7 +8223,7 @@
         <v>157</v>
       </c>
       <c r="B118" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C118">
         <v>9</v>
@@ -8269,7 +8276,7 @@
         <v>158</v>
       </c>
       <c r="B119" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C119">
         <v>1010</v>
@@ -8322,7 +8329,7 @@
         <v>159</v>
       </c>
       <c r="B120" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C120">
         <v>1666</v>
@@ -8375,7 +8382,7 @@
         <v>160</v>
       </c>
       <c r="B121" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C121">
         <v>678</v>
@@ -8428,7 +8435,7 @@
         <v>161</v>
       </c>
       <c r="B122" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C122">
         <v>3026</v>
@@ -8481,7 +8488,7 @@
         <v>162</v>
       </c>
       <c r="B123" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C123">
         <v>1918</v>
@@ -8534,7 +8541,7 @@
         <v>163</v>
       </c>
       <c r="B124" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C124">
         <v>2071</v>
@@ -8587,7 +8594,7 @@
         <v>165</v>
       </c>
       <c r="B125" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C125">
         <v>83</v>
@@ -8640,7 +8647,7 @@
         <v>167</v>
       </c>
       <c r="B126" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C126">
         <v>9</v>
@@ -8693,7 +8700,7 @@
         <v>169</v>
       </c>
       <c r="B127" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -8746,7 +8753,7 @@
         <v>170</v>
       </c>
       <c r="B128" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C128">
         <v>1626</v>
@@ -8799,7 +8806,7 @@
         <v>173</v>
       </c>
       <c r="B129" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C129">
         <v>1981</v>
@@ -8852,7 +8859,7 @@
         <v>174</v>
       </c>
       <c r="B130" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C130">
         <v>20</v>
@@ -8905,7 +8912,7 @@
         <v>175</v>
       </c>
       <c r="B131" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C131">
         <v>2442</v>
@@ -8958,7 +8965,7 @@
         <v>176</v>
       </c>
       <c r="B132" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C132">
         <v>2954</v>
@@ -9011,7 +9018,7 @@
         <v>177</v>
       </c>
       <c r="B133" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C133">
         <v>1237</v>
@@ -9064,7 +9071,7 @@
         <v>178</v>
       </c>
       <c r="B134" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C134">
         <v>1527</v>
@@ -9117,7 +9124,7 @@
         <v>180</v>
       </c>
       <c r="B135" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C135">
         <v>1049</v>
@@ -9170,7 +9177,7 @@
         <v>182</v>
       </c>
       <c r="B136" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C136">
         <v>226</v>
@@ -9223,7 +9230,7 @@
         <v>184</v>
       </c>
       <c r="B137" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C137">
         <v>32</v>
@@ -9276,7 +9283,7 @@
         <v>185</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C138">
         <v>397</v>
@@ -9329,7 +9336,7 @@
         <v>186</v>
       </c>
       <c r="B139" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -9382,7 +9389,7 @@
         <v>187</v>
       </c>
       <c r="B140" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C140">
         <v>939</v>
@@ -9435,7 +9442,7 @@
         <v>188</v>
       </c>
       <c r="B141" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -9488,7 +9495,7 @@
         <v>189</v>
       </c>
       <c r="B142" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C142">
         <v>477</v>
@@ -9541,7 +9548,7 @@
         <v>191</v>
       </c>
       <c r="B143" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C143">
         <v>1117</v>
@@ -9594,7 +9601,7 @@
         <v>192</v>
       </c>
       <c r="B144" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C144">
         <v>231</v>
@@ -9647,7 +9654,7 @@
         <v>195</v>
       </c>
       <c r="B145" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C145">
         <v>127</v>
@@ -9700,7 +9707,7 @@
         <v>196</v>
       </c>
       <c r="B146" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -9753,7 +9760,7 @@
         <v>198</v>
       </c>
       <c r="B147" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C147">
         <v>102</v>
@@ -9806,7 +9813,7 @@
         <v>199</v>
       </c>
       <c r="B148" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C148">
         <v>73</v>
@@ -9859,7 +9866,7 @@
         <v>200</v>
       </c>
       <c r="B149" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C149">
         <v>250</v>
@@ -9912,7 +9919,7 @@
         <v>201</v>
       </c>
       <c r="B150" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C150">
         <v>1433</v>
@@ -9965,7 +9972,7 @@
         <v>202</v>
       </c>
       <c r="B151" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C151">
         <v>116</v>
@@ -10018,7 +10025,7 @@
         <v>203</v>
       </c>
       <c r="B152" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -10071,7 +10078,7 @@
         <v>204</v>
       </c>
       <c r="B153" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -10124,7 +10131,7 @@
         <v>205</v>
       </c>
       <c r="B154" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C154">
         <v>1363</v>
@@ -10177,7 +10184,7 @@
         <v>206</v>
       </c>
       <c r="B155" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -10230,7 +10237,7 @@
         <v>207</v>
       </c>
       <c r="B156" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C156">
         <v>330</v>
@@ -10283,7 +10290,7 @@
         <v>208</v>
       </c>
       <c r="B157" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C157">
         <v>4</v>
@@ -10336,7 +10343,7 @@
         <v>209</v>
       </c>
       <c r="B158" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -10389,7 +10396,7 @@
         <v>211</v>
       </c>
       <c r="B159" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -10442,7 +10449,7 @@
         <v>213</v>
       </c>
       <c r="B160" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -10495,7 +10502,7 @@
         <v>214</v>
       </c>
       <c r="B161" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C161">
         <v>2430</v>
@@ -10548,7 +10555,7 @@
         <v>216</v>
       </c>
       <c r="B162" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C162">
         <v>136</v>
@@ -10601,7 +10608,7 @@
         <v>217</v>
       </c>
       <c r="B163" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -10654,7 +10661,7 @@
         <v>218</v>
       </c>
       <c r="B164" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C164">
         <v>2441</v>
@@ -10707,7 +10714,7 @@
         <v>219</v>
       </c>
       <c r="B165" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C165">
         <v>242</v>
@@ -10760,7 +10767,7 @@
         <v>221</v>
       </c>
       <c r="B166" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C166">
         <v>458</v>
@@ -10813,7 +10820,7 @@
         <v>222</v>
       </c>
       <c r="B167" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C167">
         <v>354</v>
@@ -10866,7 +10873,7 @@
         <v>223</v>
       </c>
       <c r="B168" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C168">
         <v>31</v>
@@ -10919,7 +10926,7 @@
         <v>224</v>
       </c>
       <c r="B169" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -10972,7 +10979,7 @@
         <v>226</v>
       </c>
       <c r="B170" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -11025,7 +11032,7 @@
         <v>227</v>
       </c>
       <c r="B171" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C171">
         <v>6</v>
@@ -11078,7 +11085,7 @@
         <v>228</v>
       </c>
       <c r="B172" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C172">
         <v>755</v>
@@ -11131,7 +11138,7 @@
         <v>229</v>
       </c>
       <c r="B173" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C173">
         <v>1177</v>
@@ -11184,7 +11191,7 @@
         <v>230</v>
       </c>
       <c r="B174" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C174">
         <v>1380</v>
@@ -11237,7 +11244,7 @@
         <v>231</v>
       </c>
       <c r="B175" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C175">
         <v>3085</v>
@@ -11290,7 +11297,7 @@
         <v>233</v>
       </c>
       <c r="B176" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C176">
         <v>361</v>
@@ -11343,7 +11350,7 @@
         <v>234</v>
       </c>
       <c r="B177" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C177">
         <v>424</v>
@@ -11396,7 +11403,7 @@
         <v>235</v>
       </c>
       <c r="B178" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C178">
         <v>92</v>
@@ -11449,7 +11456,7 @@
         <v>237</v>
       </c>
       <c r="B179" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C179">
         <v>787</v>
@@ -11502,7 +11509,7 @@
         <v>239</v>
       </c>
       <c r="B180" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C180">
         <v>996</v>
@@ -11555,7 +11562,7 @@
         <v>240</v>
       </c>
       <c r="B181" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C181">
         <v>16</v>
@@ -11608,7 +11615,7 @@
         <v>241</v>
       </c>
       <c r="B182" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C182">
         <v>2517</v>
@@ -11661,7 +11668,7 @@
         <v>242</v>
       </c>
       <c r="B183" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -11714,7 +11721,7 @@
         <v>243</v>
       </c>
       <c r="B184" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C184">
         <v>758</v>
@@ -11767,7 +11774,7 @@
         <v>244</v>
       </c>
       <c r="B185" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C185">
         <v>802</v>
@@ -11820,7 +11827,7 @@
         <v>245</v>
       </c>
       <c r="B186" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C186">
         <v>1351</v>
@@ -11873,7 +11880,7 @@
         <v>246</v>
       </c>
       <c r="B187" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -11926,7 +11933,7 @@
         <v>248</v>
       </c>
       <c r="B188" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C188">
         <v>2908</v>
@@ -11979,7 +11986,7 @@
         <v>251</v>
       </c>
       <c r="B189" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -12032,7 +12039,7 @@
         <v>252</v>
       </c>
       <c r="B190" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -12085,7 +12092,7 @@
         <v>253</v>
       </c>
       <c r="B191" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C191">
         <v>1506</v>
@@ -12138,7 +12145,7 @@
         <v>254</v>
       </c>
       <c r="B192" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C192">
         <v>466</v>
@@ -12191,7 +12198,7 @@
         <v>255</v>
       </c>
       <c r="B193" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C193">
         <v>1048</v>
@@ -12244,7 +12251,7 @@
         <v>256</v>
       </c>
       <c r="B194" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -12297,7 +12304,7 @@
         <v>258</v>
       </c>
       <c r="B195" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C195">
         <v>338</v>
@@ -12350,7 +12357,7 @@
         <v>259</v>
       </c>
       <c r="B196" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C196">
         <v>817</v>
@@ -12403,7 +12410,7 @@
         <v>260</v>
       </c>
       <c r="B197" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C197">
         <v>19</v>
@@ -12456,7 +12463,7 @@
         <v>261</v>
       </c>
       <c r="B198" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C198">
         <v>561</v>
@@ -12509,7 +12516,7 @@
         <v>262</v>
       </c>
       <c r="B199" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C199">
         <v>123</v>
@@ -12562,7 +12569,7 @@
         <v>265</v>
       </c>
       <c r="B200" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C200">
         <v>280</v>
@@ -12615,7 +12622,7 @@
         <v>268</v>
       </c>
       <c r="B201" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C201">
         <v>91</v>
@@ -12668,7 +12675,7 @@
         <v>269</v>
       </c>
       <c r="B202" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C202">
         <v>1093</v>
@@ -12721,7 +12728,7 @@
         <v>270</v>
       </c>
       <c r="B203" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C203">
         <v>1307</v>
@@ -12774,7 +12781,7 @@
         <v>271</v>
       </c>
       <c r="B204" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -12827,7 +12834,7 @@
         <v>274</v>
       </c>
       <c r="B205" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C205">
         <v>32</v>
@@ -12880,7 +12887,7 @@
         <v>275</v>
       </c>
       <c r="B206" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C206">
         <v>698</v>
@@ -12933,7 +12940,7 @@
         <v>278</v>
       </c>
       <c r="B207" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C207">
         <v>241</v>
@@ -12986,7 +12993,7 @@
         <v>282</v>
       </c>
       <c r="B208" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C208">
         <v>677</v>
@@ -13039,7 +13046,7 @@
         <v>283</v>
       </c>
       <c r="B209" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C209">
         <v>607</v>
@@ -13092,7 +13099,7 @@
         <v>287</v>
       </c>
       <c r="B210" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C210">
         <v>817</v>
@@ -13145,7 +13152,7 @@
         <v>288</v>
       </c>
       <c r="B211" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C211">
         <v>1106</v>
@@ -13198,7 +13205,7 @@
         <v>290</v>
       </c>
       <c r="B212" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C212">
         <v>120</v>
@@ -13251,7 +13258,7 @@
         <v>291</v>
       </c>
       <c r="B213" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C213">
         <v>47</v>
@@ -13304,7 +13311,7 @@
         <v>292</v>
       </c>
       <c r="B214" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C214">
         <v>46</v>
@@ -13357,7 +13364,7 @@
         <v>294</v>
       </c>
       <c r="B215" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13410,7 +13417,7 @@
         <v>296</v>
       </c>
       <c r="B216" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C216">
         <v>1149</v>
@@ -13463,7 +13470,7 @@
         <v>297</v>
       </c>
       <c r="B217" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C217">
         <v>800</v>
@@ -13516,7 +13523,7 @@
         <v>298</v>
       </c>
       <c r="B218" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C218">
         <v>217</v>
@@ -13569,7 +13576,7 @@
         <v>300</v>
       </c>
       <c r="B219" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C219">
         <v>1049</v>
@@ -13622,7 +13629,7 @@
         <v>302</v>
       </c>
       <c r="B220" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C220">
         <v>433</v>
@@ -13675,7 +13682,7 @@
         <v>303</v>
       </c>
       <c r="B221" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C221">
         <v>8</v>
@@ -13728,7 +13735,7 @@
         <v>305</v>
       </c>
       <c r="B222" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C222">
         <v>118</v>
@@ -13781,7 +13788,7 @@
         <v>306</v>
       </c>
       <c r="B223" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C223">
         <v>281</v>
@@ -13834,7 +13841,7 @@
         <v>307</v>
       </c>
       <c r="B224" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C224">
         <v>2297</v>
@@ -13887,7 +13894,7 @@
         <v>308</v>
       </c>
       <c r="B225" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C225">
         <v>460</v>
@@ -13940,7 +13947,7 @@
         <v>309</v>
       </c>
       <c r="B226" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -13993,7 +14000,7 @@
         <v>310</v>
       </c>
       <c r="B227" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C227">
         <v>1541</v>
@@ -14046,7 +14053,7 @@
         <v>313</v>
       </c>
       <c r="B228" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C228">
         <v>1423</v>
@@ -14099,7 +14106,7 @@
         <v>317</v>
       </c>
       <c r="B229" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C229">
         <v>128</v>
@@ -14152,7 +14159,7 @@
         <v>318</v>
       </c>
       <c r="B230" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C230">
         <v>1637</v>
@@ -14205,7 +14212,7 @@
         <v>320</v>
       </c>
       <c r="B231" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -14258,7 +14265,7 @@
         <v>321</v>
       </c>
       <c r="B232" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -14311,7 +14318,7 @@
         <v>323</v>
       </c>
       <c r="B233" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C233">
         <v>1193</v>
@@ -14364,7 +14371,7 @@
         <v>324</v>
       </c>
       <c r="B234" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C234">
         <v>551</v>
@@ -14417,7 +14424,7 @@
         <v>326</v>
       </c>
       <c r="B235" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C235">
         <v>1591</v>
@@ -14470,7 +14477,7 @@
         <v>329</v>
       </c>
       <c r="B236" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -14523,7 +14530,7 @@
         <v>330</v>
       </c>
       <c r="B237" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -14576,7 +14583,7 @@
         <v>331</v>
       </c>
       <c r="B238" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -14629,7 +14636,7 @@
         <v>332</v>
       </c>
       <c r="B239" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C239">
         <v>51</v>
@@ -14682,7 +14689,7 @@
         <v>337</v>
       </c>
       <c r="B240" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C240">
         <v>103</v>
@@ -14735,7 +14742,7 @@
         <v>339</v>
       </c>
       <c r="B241" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C241">
         <v>2033</v>
@@ -14788,7 +14795,7 @@
         <v>341</v>
       </c>
       <c r="B242" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C242">
         <v>2</v>
@@ -14841,7 +14848,7 @@
         <v>342</v>
       </c>
       <c r="B243" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C243">
         <v>2</v>
@@ -14894,7 +14901,7 @@
         <v>343</v>
       </c>
       <c r="B244" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C244">
         <v>457</v>
@@ -14947,7 +14954,7 @@
         <v>344</v>
       </c>
       <c r="B245" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C245">
         <v>97</v>
@@ -15000,7 +15007,7 @@
         <v>345</v>
       </c>
       <c r="B246" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C246">
         <v>12</v>
@@ -15053,7 +15060,7 @@
         <v>346</v>
       </c>
       <c r="B247" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C247">
         <v>12</v>
@@ -15106,7 +15113,7 @@
         <v>347</v>
       </c>
       <c r="B248" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C248">
         <v>137</v>
@@ -15159,7 +15166,7 @@
         <v>348</v>
       </c>
       <c r="B249" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C249">
         <v>0</v>
@@ -15212,7 +15219,7 @@
         <v>350</v>
       </c>
       <c r="B250" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -15265,7 +15272,7 @@
         <v>352</v>
       </c>
       <c r="B251" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C251">
         <v>773</v>
@@ -15318,7 +15325,7 @@
         <v>354</v>
       </c>
       <c r="B252" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C252">
         <v>48</v>
@@ -15371,7 +15378,7 @@
         <v>356</v>
       </c>
       <c r="B253" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C253">
         <v>327</v>
@@ -15424,7 +15431,7 @@
         <v>357</v>
       </c>
       <c r="B254" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C254">
         <v>750</v>
@@ -15477,7 +15484,7 @@
         <v>359</v>
       </c>
       <c r="B255" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -15530,7 +15537,7 @@
         <v>361</v>
       </c>
       <c r="B256" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -15583,7 +15590,7 @@
         <v>363</v>
       </c>
       <c r="B257" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C257">
         <v>1836</v>
@@ -15636,7 +15643,7 @@
         <v>364</v>
       </c>
       <c r="B258" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C258">
         <v>675</v>
@@ -15689,7 +15696,7 @@
         <v>365</v>
       </c>
       <c r="B259" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -15742,7 +15749,7 @@
         <v>366</v>
       </c>
       <c r="B260" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C260">
         <v>74</v>
@@ -15795,7 +15802,7 @@
         <v>368</v>
       </c>
       <c r="B261" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C261">
         <v>736</v>
@@ -15848,7 +15855,7 @@
         <v>369</v>
       </c>
       <c r="B262" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C262">
         <v>591</v>
@@ -15901,7 +15908,7 @@
         <v>370</v>
       </c>
       <c r="B263" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C263">
         <v>51</v>
@@ -15954,7 +15961,7 @@
         <v>375</v>
       </c>
       <c r="B264" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C264">
         <v>2020</v>
@@ -16007,7 +16014,7 @@
         <v>376</v>
       </c>
       <c r="B265" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C265">
         <v>2251</v>
@@ -16060,7 +16067,7 @@
         <v>377</v>
       </c>
       <c r="B266" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C266">
         <v>2759</v>
@@ -16113,7 +16120,7 @@
         <v>378</v>
       </c>
       <c r="B267" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C267">
         <v>9135</v>
@@ -16166,7 +16173,7 @@
         <v>379</v>
       </c>
       <c r="B268" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C268">
         <v>19</v>
@@ -16219,7 +16226,7 @@
         <v>380</v>
       </c>
       <c r="B269" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C269">
         <v>2</v>
@@ -16272,7 +16279,7 @@
         <v>381</v>
       </c>
       <c r="B270" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C270">
         <v>1506</v>
@@ -16325,7 +16332,7 @@
         <v>382</v>
       </c>
       <c r="B271" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C271">
         <v>1945</v>
@@ -16378,7 +16385,7 @@
         <v>384</v>
       </c>
       <c r="B272" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C272">
         <v>966</v>
@@ -16431,7 +16438,7 @@
         <v>385</v>
       </c>
       <c r="B273" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C273">
         <v>2</v>
@@ -16484,7 +16491,7 @@
         <v>386</v>
       </c>
       <c r="B274" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C274">
         <v>1545</v>
@@ -16537,7 +16544,7 @@
         <v>387</v>
       </c>
       <c r="B275" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C275">
         <v>1694</v>
@@ -16590,7 +16597,7 @@
         <v>388</v>
       </c>
       <c r="B276" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -16643,7 +16650,7 @@
         <v>389</v>
       </c>
       <c r="B277" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -16696,7 +16703,7 @@
         <v>390</v>
       </c>
       <c r="B278" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C278">
         <v>18</v>
@@ -16749,7 +16756,7 @@
         <v>391</v>
       </c>
       <c r="B279" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C279">
         <v>2</v>
@@ -16802,7 +16809,7 @@
         <v>392</v>
       </c>
       <c r="B280" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C280">
         <v>354</v>
@@ -16855,7 +16862,7 @@
         <v>393</v>
       </c>
       <c r="B281" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C281">
         <v>390</v>
@@ -16908,7 +16915,7 @@
         <v>394</v>
       </c>
       <c r="B282" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C282">
         <v>495</v>
@@ -16961,7 +16968,7 @@
         <v>395</v>
       </c>
       <c r="B283" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C283">
         <v>132</v>
@@ -17014,7 +17021,7 @@
         <v>396</v>
       </c>
       <c r="B284" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C284">
         <v>6953</v>
@@ -17067,7 +17074,7 @@
         <v>397</v>
       </c>
       <c r="B285" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -17120,7 +17127,7 @@
         <v>398</v>
       </c>
       <c r="B286" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C286">
         <v>23</v>
@@ -17173,7 +17180,7 @@
         <v>400</v>
       </c>
       <c r="B287" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C287">
         <v>2102</v>
@@ -17226,7 +17233,7 @@
         <v>401</v>
       </c>
       <c r="B288" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C288">
         <v>2235</v>
@@ -17279,7 +17286,7 @@
         <v>402</v>
       </c>
       <c r="B289" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C289">
         <v>3502</v>
@@ -17332,7 +17339,7 @@
         <v>403</v>
       </c>
       <c r="B290" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C290">
         <v>490</v>
@@ -17385,7 +17392,7 @@
         <v>404</v>
       </c>
       <c r="B291" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C291">
         <v>16</v>
@@ -17438,7 +17445,7 @@
         <v>405</v>
       </c>
       <c r="B292" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C292">
         <v>1480</v>
@@ -17491,7 +17498,7 @@
         <v>406</v>
       </c>
       <c r="B293" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C293">
         <v>1915</v>
@@ -17544,7 +17551,7 @@
         <v>408</v>
       </c>
       <c r="B294" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C294">
         <v>2608</v>
@@ -17597,7 +17604,7 @@
         <v>410</v>
       </c>
       <c r="B295" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C295">
         <v>752</v>
@@ -17650,7 +17657,7 @@
         <v>412</v>
       </c>
       <c r="B296" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C296">
         <v>1842</v>
@@ -17703,7 +17710,7 @@
         <v>413</v>
       </c>
       <c r="B297" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C297">
         <v>1217</v>
@@ -17756,7 +17763,7 @@
         <v>415</v>
       </c>
       <c r="B298" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C298">
         <v>871</v>
@@ -17809,7 +17816,7 @@
         <v>417</v>
       </c>
       <c r="B299" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C299">
         <v>2565</v>
@@ -17862,7 +17869,7 @@
         <v>418</v>
       </c>
       <c r="B300" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C300">
         <v>1469</v>
@@ -17915,7 +17922,7 @@
         <v>419</v>
       </c>
       <c r="B301" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C301">
         <v>8</v>
@@ -17968,7 +17975,7 @@
         <v>421</v>
       </c>
       <c r="B302" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C302">
         <v>113</v>
@@ -18021,7 +18028,7 @@
         <v>422</v>
       </c>
       <c r="B303" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C303">
         <v>763</v>
@@ -18074,7 +18081,7 @@
         <v>423</v>
       </c>
       <c r="B304" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C304">
         <v>207</v>
@@ -18127,7 +18134,7 @@
         <v>424</v>
       </c>
       <c r="B305" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C305">
         <v>41</v>
@@ -18180,7 +18187,7 @@
         <v>428</v>
       </c>
       <c r="B306" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C306">
         <v>328</v>
@@ -18233,7 +18240,7 @@
         <v>430</v>
       </c>
       <c r="B307" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C307">
         <v>678</v>
@@ -18286,7 +18293,7 @@
         <v>431</v>
       </c>
       <c r="B308" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C308">
         <v>163</v>
@@ -18339,7 +18346,7 @@
         <v>432</v>
       </c>
       <c r="B309" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C309">
         <v>602</v>
@@ -18392,7 +18399,7 @@
         <v>433</v>
       </c>
       <c r="B310" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C310">
         <v>19</v>
@@ -18445,7 +18452,7 @@
         <v>434</v>
       </c>
       <c r="B311" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C311">
         <v>289</v>
@@ -18498,7 +18505,7 @@
         <v>435</v>
       </c>
       <c r="B312" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C312">
         <v>678</v>
@@ -18551,7 +18558,7 @@
         <v>437</v>
       </c>
       <c r="B313" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C313">
         <v>4</v>
@@ -18604,7 +18611,7 @@
         <v>439</v>
       </c>
       <c r="B314" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C314">
         <v>5</v>
@@ -18657,7 +18664,7 @@
         <v>440</v>
       </c>
       <c r="B315" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C315">
         <v>83</v>
@@ -18710,7 +18717,7 @@
         <v>441</v>
       </c>
       <c r="B316" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C316">
         <v>2097</v>
@@ -18763,7 +18770,7 @@
         <v>442</v>
       </c>
       <c r="B317" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C317">
         <v>1143</v>
@@ -18816,7 +18823,7 @@
         <v>444</v>
       </c>
       <c r="B318" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C318">
         <v>66</v>
@@ -18869,7 +18876,7 @@
         <v>445</v>
       </c>
       <c r="B319" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C319">
         <v>740</v>
@@ -18922,7 +18929,7 @@
         <v>446</v>
       </c>
       <c r="B320" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C320">
         <v>2</v>
@@ -18975,7 +18982,7 @@
         <v>448</v>
       </c>
       <c r="B321" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -19028,7 +19035,7 @@
         <v>450</v>
       </c>
       <c r="B322" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C322">
         <v>3</v>
@@ -19081,7 +19088,7 @@
         <v>451</v>
       </c>
       <c r="B323" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C323">
         <v>158</v>
@@ -19134,7 +19141,7 @@
         <v>452</v>
       </c>
       <c r="B324" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C324">
         <v>50</v>
@@ -19187,7 +19194,7 @@
         <v>454</v>
       </c>
       <c r="B325" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C325">
         <v>66</v>
@@ -19240,7 +19247,7 @@
         <v>455</v>
       </c>
       <c r="B326" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C326">
         <v>17</v>
@@ -19293,7 +19300,7 @@
         <v>456</v>
       </c>
       <c r="B327" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C327">
         <v>3613</v>
@@ -19346,7 +19353,7 @@
         <v>458</v>
       </c>
       <c r="B328" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C328">
         <v>695</v>
@@ -19399,7 +19406,7 @@
         <v>459</v>
       </c>
       <c r="B329" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C329">
         <v>16</v>
@@ -19452,7 +19459,7 @@
         <v>461</v>
       </c>
       <c r="B330" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C330">
         <v>12</v>
@@ -19505,7 +19512,7 @@
         <v>462</v>
       </c>
       <c r="B331" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C331">
         <v>292</v>
@@ -19558,7 +19565,7 @@
         <v>465</v>
       </c>
       <c r="B332" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C332">
         <v>638</v>
@@ -19611,7 +19618,7 @@
         <v>466</v>
       </c>
       <c r="B333" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C333">
         <v>1832</v>
@@ -19664,7 +19671,7 @@
         <v>467</v>
       </c>
       <c r="B334" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -19717,7 +19724,7 @@
         <v>468</v>
       </c>
       <c r="B335" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C335">
         <v>4</v>
@@ -19770,7 +19777,7 @@
         <v>469</v>
       </c>
       <c r="B336" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C336">
         <v>269</v>
@@ -19823,7 +19830,7 @@
         <v>470</v>
       </c>
       <c r="B337" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C337">
         <v>4</v>
@@ -19876,7 +19883,7 @@
         <v>471</v>
       </c>
       <c r="B338" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C338">
         <v>38</v>
@@ -19929,7 +19936,7 @@
         <v>473</v>
       </c>
       <c r="B339" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C339">
         <v>149</v>
@@ -19982,7 +19989,7 @@
         <v>474</v>
       </c>
       <c r="B340" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C340">
         <v>151</v>
@@ -20035,7 +20042,7 @@
         <v>475</v>
       </c>
       <c r="B341" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C341">
         <v>52</v>
@@ -20088,7 +20095,7 @@
         <v>478</v>
       </c>
       <c r="B342" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C342">
         <v>848</v>
@@ -20141,7 +20148,7 @@
         <v>479</v>
       </c>
       <c r="B343" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -20194,7 +20201,7 @@
         <v>481</v>
       </c>
       <c r="B344" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C344">
         <v>3</v>
@@ -20247,7 +20254,7 @@
         <v>482</v>
       </c>
       <c r="B345" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C345">
         <v>237</v>
@@ -20300,7 +20307,7 @@
         <v>484</v>
       </c>
       <c r="B346" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C346">
         <v>175</v>
@@ -20353,7 +20360,7 @@
         <v>485</v>
       </c>
       <c r="B347" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C347">
         <v>207</v>
@@ -20406,7 +20413,7 @@
         <v>486</v>
       </c>
       <c r="B348" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C348">
         <v>6</v>
@@ -20459,7 +20466,7 @@
         <v>488</v>
       </c>
       <c r="B349" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C349">
         <v>5</v>
@@ -20512,7 +20519,7 @@
         <v>489</v>
       </c>
       <c r="B350" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C350">
         <v>3805</v>
@@ -20565,7 +20572,7 @@
         <v>490</v>
       </c>
       <c r="B351" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -20618,7 +20625,7 @@
         <v>491</v>
       </c>
       <c r="B352" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C352">
         <v>1</v>
@@ -20671,7 +20678,7 @@
         <v>492</v>
       </c>
       <c r="B353" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C353">
         <v>12</v>
@@ -20724,7 +20731,7 @@
         <v>494</v>
       </c>
       <c r="B354" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C354">
         <v>1082</v>
@@ -20777,7 +20784,7 @@
         <v>495</v>
       </c>
       <c r="B355" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C355">
         <v>2</v>
@@ -20830,7 +20837,7 @@
         <v>496</v>
       </c>
       <c r="B356" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C356">
         <v>913</v>
@@ -20883,7 +20890,7 @@
         <v>497</v>
       </c>
       <c r="B357" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C357">
         <v>2525</v>
@@ -20936,7 +20943,7 @@
         <v>498</v>
       </c>
       <c r="B358" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C358">
         <v>10</v>
@@ -20989,7 +20996,7 @@
         <v>500</v>
       </c>
       <c r="B359" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C359">
         <v>288</v>
@@ -21042,7 +21049,7 @@
         <v>501</v>
       </c>
       <c r="B360" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C360">
         <v>3034</v>
@@ -21095,7 +21102,7 @@
         <v>504</v>
       </c>
       <c r="B361" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C361">
         <v>992</v>
@@ -21148,7 +21155,7 @@
         <v>506</v>
       </c>
       <c r="B362" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C362">
         <v>446</v>
@@ -21201,7 +21208,7 @@
         <v>507</v>
       </c>
       <c r="B363" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C363">
         <v>11</v>
@@ -21254,7 +21261,7 @@
         <v>508</v>
       </c>
       <c r="B364" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C364">
         <v>2605</v>
@@ -21307,7 +21314,7 @@
         <v>509</v>
       </c>
       <c r="B365" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C365">
         <v>791</v>
@@ -21360,7 +21367,7 @@
         <v>510</v>
       </c>
       <c r="B366" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C366">
         <v>1421</v>
@@ -21413,7 +21420,7 @@
         <v>512</v>
       </c>
       <c r="B367" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C367">
         <v>1502</v>
@@ -21466,7 +21473,7 @@
         <v>513</v>
       </c>
       <c r="B368" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C368">
         <v>1</v>
@@ -21519,7 +21526,7 @@
         <v>514</v>
       </c>
       <c r="B369" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C369">
         <v>2143</v>
@@ -21572,7 +21579,7 @@
         <v>515</v>
       </c>
       <c r="B370" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C370">
         <v>603</v>
@@ -21625,7 +21632,7 @@
         <v>516</v>
       </c>
       <c r="B371" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C371">
         <v>965</v>
@@ -21678,7 +21685,7 @@
         <v>518</v>
       </c>
       <c r="B372" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -21731,7 +21738,7 @@
         <v>520</v>
       </c>
       <c r="B373" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C373">
         <v>1394</v>
@@ -21784,7 +21791,7 @@
         <v>521</v>
       </c>
       <c r="B374" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C374">
         <v>1022</v>
@@ -21837,7 +21844,7 @@
         <v>522</v>
       </c>
       <c r="B375" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C375">
         <v>622</v>
@@ -21890,7 +21897,7 @@
         <v>523</v>
       </c>
       <c r="B376" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C376">
         <v>340</v>
@@ -21943,7 +21950,7 @@
         <v>524</v>
       </c>
       <c r="B377" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C377">
         <v>3718</v>
@@ -21996,7 +22003,7 @@
         <v>525</v>
       </c>
       <c r="B378" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C378">
         <v>8</v>
@@ -22049,7 +22056,7 @@
         <v>526</v>
       </c>
       <c r="B379" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C379">
         <v>676</v>
@@ -22102,7 +22109,7 @@
         <v>527</v>
       </c>
       <c r="B380" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C380">
         <v>467</v>
@@ -22155,7 +22162,7 @@
         <v>529</v>
       </c>
       <c r="B381" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C381">
         <v>971</v>
@@ -22208,7 +22215,7 @@
         <v>530</v>
       </c>
       <c r="B382" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C382">
         <v>344</v>
@@ -22261,7 +22268,7 @@
         <v>531</v>
       </c>
       <c r="B383" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C383">
         <v>1</v>
@@ -22314,7 +22321,7 @@
         <v>532</v>
       </c>
       <c r="B384" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C384">
         <v>10</v>
@@ -22367,7 +22374,7 @@
         <v>533</v>
       </c>
       <c r="B385" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C385">
         <v>185</v>
@@ -22420,7 +22427,7 @@
         <v>534</v>
       </c>
       <c r="B386" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C386">
         <v>871</v>
@@ -22473,7 +22480,7 @@
         <v>535</v>
       </c>
       <c r="B387" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C387">
         <v>561</v>
@@ -22526,7 +22533,7 @@
         <v>536</v>
       </c>
       <c r="B388" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C388">
         <v>708</v>
@@ -22579,7 +22586,7 @@
         <v>537</v>
       </c>
       <c r="B389" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C389">
         <v>2142</v>
@@ -22632,7 +22639,7 @@
         <v>539</v>
       </c>
       <c r="B390" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C390">
         <v>1162</v>
@@ -22685,7 +22692,7 @@
         <v>541</v>
       </c>
       <c r="B391" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C391">
         <v>322</v>
@@ -22738,7 +22745,7 @@
         <v>542</v>
       </c>
       <c r="B392" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C392">
         <v>551</v>
@@ -22791,7 +22798,7 @@
         <v>543</v>
       </c>
       <c r="B393" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C393">
         <v>495</v>
@@ -22844,7 +22851,7 @@
         <v>544</v>
       </c>
       <c r="B394" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C394">
         <v>7</v>
@@ -22897,7 +22904,7 @@
         <v>545</v>
       </c>
       <c r="B395" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C395">
         <v>953</v>
@@ -22950,7 +22957,7 @@
         <v>546</v>
       </c>
       <c r="B396" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C396">
         <v>7</v>
@@ -23003,7 +23010,7 @@
         <v>547</v>
       </c>
       <c r="B397" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C397">
         <v>1569</v>
@@ -23056,7 +23063,7 @@
         <v>548</v>
       </c>
       <c r="B398" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C398">
         <v>1663</v>
@@ -23109,7 +23116,7 @@
         <v>549</v>
       </c>
       <c r="B399" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C399">
         <v>872</v>
@@ -23162,7 +23169,7 @@
         <v>550</v>
       </c>
       <c r="B400" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C400">
         <v>2218</v>
@@ -23215,7 +23222,7 @@
         <v>551</v>
       </c>
       <c r="B401" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C401">
         <v>206</v>
@@ -23268,7 +23275,7 @@
         <v>553</v>
       </c>
       <c r="B402" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C402">
         <v>44</v>
@@ -23321,7 +23328,7 @@
         <v>554</v>
       </c>
       <c r="B403" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C403">
         <v>337</v>
@@ -23374,7 +23381,7 @@
         <v>555</v>
       </c>
       <c r="B404" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C404">
         <v>1935</v>
@@ -23427,7 +23434,7 @@
         <v>556</v>
       </c>
       <c r="B405" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C405">
         <v>1629</v>
@@ -23480,7 +23487,7 @@
         <v>557</v>
       </c>
       <c r="B406" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C406">
         <v>773</v>
@@ -23533,7 +23540,7 @@
         <v>558</v>
       </c>
       <c r="B407" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C407">
         <v>1617</v>
@@ -23586,7 +23593,7 @@
         <v>559</v>
       </c>
       <c r="B408" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C408">
         <v>2139</v>
@@ -23639,7 +23646,7 @@
         <v>560</v>
       </c>
       <c r="B409" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C409">
         <v>18</v>
@@ -23692,7 +23699,7 @@
         <v>561</v>
       </c>
       <c r="B410" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C410">
         <v>1633</v>
@@ -23745,7 +23752,7 @@
         <v>562</v>
       </c>
       <c r="B411" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -23798,7 +23805,7 @@
         <v>563</v>
       </c>
       <c r="B412" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C412">
         <v>352</v>
@@ -23851,7 +23858,7 @@
         <v>564</v>
       </c>
       <c r="B413" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -23904,7 +23911,7 @@
         <v>565</v>
       </c>
       <c r="B414" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C414">
         <v>1279</v>
@@ -23957,7 +23964,7 @@
         <v>569</v>
       </c>
       <c r="B415" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C415">
         <v>5</v>
@@ -24010,7 +24017,7 @@
         <v>570</v>
       </c>
       <c r="B416" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -24063,7 +24070,7 @@
         <v>571</v>
       </c>
       <c r="B417" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C417">
         <v>2</v>
@@ -24116,7 +24123,7 @@
         <v>572</v>
       </c>
       <c r="B418" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C418">
         <v>0</v>
@@ -24169,7 +24176,7 @@
         <v>573</v>
       </c>
       <c r="B419" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C419">
         <v>956</v>
@@ -24222,7 +24229,7 @@
         <v>574</v>
       </c>
       <c r="B420" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C420">
         <v>3481</v>
@@ -24275,7 +24282,7 @@
         <v>575</v>
       </c>
       <c r="B421" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -24328,7 +24335,7 @@
         <v>576</v>
       </c>
       <c r="B422" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C422">
         <v>325</v>
@@ -24381,7 +24388,7 @@
         <v>577</v>
       </c>
       <c r="B423" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C423">
         <v>186</v>
@@ -24434,7 +24441,7 @@
         <v>578</v>
       </c>
       <c r="B424" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C424">
         <v>768</v>
@@ -24487,7 +24494,7 @@
         <v>579</v>
       </c>
       <c r="B425" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C425">
         <v>505</v>
@@ -24540,7 +24547,7 @@
         <v>581</v>
       </c>
       <c r="B426" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C426">
         <v>725</v>
@@ -24593,7 +24600,7 @@
         <v>582</v>
       </c>
       <c r="B427" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C427">
         <v>3251</v>
@@ -24646,7 +24653,7 @@
         <v>583</v>
       </c>
       <c r="B428" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C428">
         <v>837</v>
@@ -24699,7 +24706,7 @@
         <v>584</v>
       </c>
       <c r="B429" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -24752,7 +24759,7 @@
         <v>585</v>
       </c>
       <c r="B430" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C430">
         <v>4</v>
@@ -24805,7 +24812,7 @@
         <v>586</v>
       </c>
       <c r="B431" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C431">
         <v>0</v>
@@ -24858,7 +24865,7 @@
         <v>587</v>
       </c>
       <c r="B432" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C432">
         <v>630</v>
@@ -24911,7 +24918,7 @@
         <v>589</v>
       </c>
       <c r="B433" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C433">
         <v>1492</v>
@@ -24964,7 +24971,7 @@
         <v>590</v>
       </c>
       <c r="B434" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C434">
         <v>921</v>
@@ -25017,7 +25024,7 @@
         <v>594</v>
       </c>
       <c r="B435" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C435">
         <v>1205</v>
@@ -25070,7 +25077,7 @@
         <v>596</v>
       </c>
       <c r="B436" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C436">
         <v>1471</v>
@@ -25123,7 +25130,7 @@
         <v>597</v>
       </c>
       <c r="B437" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C437">
         <v>22</v>
@@ -25176,7 +25183,7 @@
         <v>598</v>
       </c>
       <c r="B438" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C438">
         <v>28</v>
@@ -25229,7 +25236,7 @@
         <v>599</v>
       </c>
       <c r="B439" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C439">
         <v>622</v>
@@ -25282,7 +25289,7 @@
         <v>601</v>
       </c>
       <c r="B440" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C440">
         <v>1052</v>
@@ -25335,7 +25342,7 @@
         <v>602</v>
       </c>
       <c r="B441" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C441">
         <v>2013</v>
@@ -25388,7 +25395,7 @@
         <v>603</v>
       </c>
       <c r="B442" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C442">
         <v>201</v>
@@ -25441,7 +25448,7 @@
         <v>606</v>
       </c>
       <c r="B443" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C443">
         <v>231</v>
@@ -25494,7 +25501,7 @@
         <v>607</v>
       </c>
       <c r="B444" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -25547,7 +25554,7 @@
         <v>610</v>
       </c>
       <c r="B445" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C445">
         <v>539</v>
@@ -25600,7 +25607,7 @@
         <v>611</v>
       </c>
       <c r="B446" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C446">
         <v>369</v>
@@ -25653,7 +25660,7 @@
         <v>612</v>
       </c>
       <c r="B447" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C447">
         <v>600</v>
@@ -25706,7 +25713,7 @@
         <v>613</v>
       </c>
       <c r="B448" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -25759,7 +25766,7 @@
         <v>614</v>
       </c>
       <c r="B449" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C449">
         <v>3388</v>
@@ -25812,7 +25819,7 @@
         <v>615</v>
       </c>
       <c r="B450" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C450">
         <v>3722</v>
@@ -25865,7 +25872,7 @@
         <v>617</v>
       </c>
       <c r="B451" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C451">
         <v>2230</v>
@@ -25918,7 +25925,7 @@
         <v>618</v>
       </c>
       <c r="B452" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C452">
         <v>1594</v>
@@ -25971,7 +25978,7 @@
         <v>620</v>
       </c>
       <c r="B453" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C453">
         <v>394</v>
@@ -26024,7 +26031,7 @@
         <v>621</v>
       </c>
       <c r="B454" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -26077,7 +26084,7 @@
         <v>623</v>
       </c>
       <c r="B455" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C455">
         <v>690</v>
@@ -26130,7 +26137,7 @@
         <v>624</v>
       </c>
       <c r="B456" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C456">
         <v>1</v>
@@ -26183,7 +26190,7 @@
         <v>625</v>
       </c>
       <c r="B457" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C457">
         <v>5</v>
@@ -26236,7 +26243,7 @@
         <v>626</v>
       </c>
       <c r="B458" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -26289,7 +26296,7 @@
         <v>627</v>
       </c>
       <c r="B459" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C459">
         <v>1314</v>
@@ -26342,7 +26349,7 @@
         <v>628</v>
       </c>
       <c r="B460" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C460">
         <v>1010</v>
@@ -26395,7 +26402,7 @@
         <v>630</v>
       </c>
       <c r="B461" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C461">
         <v>1776</v>
@@ -26448,7 +26455,7 @@
         <v>631</v>
       </c>
       <c r="B462" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C462">
         <v>15</v>
@@ -26501,7 +26508,7 @@
         <v>632</v>
       </c>
       <c r="B463" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C463">
         <v>6</v>
@@ -26554,7 +26561,7 @@
         <v>633</v>
       </c>
       <c r="B464" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -26607,7 +26614,7 @@
         <v>634</v>
       </c>
       <c r="B465" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C465">
         <v>16</v>
@@ -26660,7 +26667,7 @@
         <v>635</v>
       </c>
       <c r="B466" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C466">
         <v>30</v>
@@ -26713,7 +26720,7 @@
         <v>636</v>
       </c>
       <c r="B467" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C467">
         <v>0</v>
@@ -26766,7 +26773,7 @@
         <v>638</v>
       </c>
       <c r="B468" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C468">
         <v>2</v>
@@ -26819,7 +26826,7 @@
         <v>639</v>
       </c>
       <c r="B469" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C469">
         <v>75</v>
@@ -26872,7 +26879,7 @@
         <v>640</v>
       </c>
       <c r="B470" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C470">
         <v>0</v>
@@ -26925,7 +26932,7 @@
         <v>642</v>
       </c>
       <c r="B471" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C471">
         <v>0</v>
@@ -26978,7 +26985,7 @@
         <v>644</v>
       </c>
       <c r="B472" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C472">
         <v>7</v>
@@ -27031,7 +27038,7 @@
         <v>645</v>
       </c>
       <c r="B473" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C473">
         <v>78</v>
@@ -27084,7 +27091,7 @@
         <v>649</v>
       </c>
       <c r="B474" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C474">
         <v>2468</v>
@@ -27137,7 +27144,7 @@
         <v>650</v>
       </c>
       <c r="B475" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C475">
         <v>7</v>
@@ -27190,7 +27197,7 @@
         <v>653</v>
       </c>
       <c r="B476" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C476">
         <v>590</v>
@@ -27243,7 +27250,7 @@
         <v>654</v>
       </c>
       <c r="B477" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C477">
         <v>1131</v>
@@ -27296,7 +27303,7 @@
         <v>656</v>
       </c>
       <c r="B478" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C478">
         <v>3</v>
@@ -27349,7 +27356,7 @@
         <v>657</v>
       </c>
       <c r="B479" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C479">
         <v>864</v>
@@ -27402,7 +27409,7 @@
         <v>658</v>
       </c>
       <c r="B480" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C480">
         <v>0</v>
@@ -27455,7 +27462,7 @@
         <v>659</v>
       </c>
       <c r="B481" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C481">
         <v>1810</v>
@@ -27508,7 +27515,7 @@
         <v>660</v>
       </c>
       <c r="B482" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C482">
         <v>1652</v>
@@ -27561,7 +27568,7 @@
         <v>661</v>
       </c>
       <c r="B483" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C483">
         <v>687</v>
@@ -27614,7 +27621,7 @@
         <v>662</v>
       </c>
       <c r="B484" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -27667,7 +27674,7 @@
         <v>663</v>
       </c>
       <c r="B485" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C485">
         <v>4762</v>
@@ -27720,7 +27727,7 @@
         <v>664</v>
       </c>
       <c r="B486" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C486">
         <v>2</v>
@@ -27773,7 +27780,7 @@
         <v>665</v>
       </c>
       <c r="B487" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C487">
         <v>245</v>
@@ -27826,7 +27833,7 @@
         <v>669</v>
       </c>
       <c r="B488" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C488">
         <v>2310</v>
@@ -27879,7 +27886,7 @@
         <v>670</v>
       </c>
       <c r="B489" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C489">
         <v>92</v>
@@ -27932,7 +27939,7 @@
         <v>671</v>
       </c>
       <c r="B490" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C490">
         <v>1090</v>
@@ -27985,7 +27992,7 @@
         <v>672</v>
       </c>
       <c r="B491" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C491">
         <v>1403</v>
@@ -28038,7 +28045,7 @@
         <v>673</v>
       </c>
       <c r="B492" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C492">
         <v>1150</v>
@@ -28091,7 +28098,7 @@
         <v>674</v>
       </c>
       <c r="B493" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C493">
         <v>180</v>
@@ -28144,7 +28151,7 @@
         <v>675</v>
       </c>
       <c r="B494" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C494">
         <v>510</v>
@@ -28197,7 +28204,7 @@
         <v>676</v>
       </c>
       <c r="B495" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C495">
         <v>173</v>
@@ -28250,7 +28257,7 @@
         <v>677</v>
       </c>
       <c r="B496" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C496">
         <v>32</v>
@@ -28303,7 +28310,7 @@
         <v>678</v>
       </c>
       <c r="B497" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C497">
         <v>0</v>
@@ -28356,7 +28363,7 @@
         <v>679</v>
       </c>
       <c r="B498" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -28409,7 +28416,7 @@
         <v>680</v>
       </c>
       <c r="B499" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C499">
         <v>1</v>
@@ -28462,7 +28469,7 @@
         <v>681</v>
       </c>
       <c r="B500" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C500">
         <v>10</v>
@@ -28515,7 +28522,7 @@
         <v>683</v>
       </c>
       <c r="B501" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C501">
         <v>10</v>
@@ -28568,7 +28575,7 @@
         <v>684</v>
       </c>
       <c r="B502" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C502">
         <v>3110</v>
@@ -28621,7 +28628,7 @@
         <v>687</v>
       </c>
       <c r="B503" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C503">
         <v>18</v>
@@ -28674,7 +28681,7 @@
         <v>688</v>
       </c>
       <c r="B504" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C504">
         <v>310</v>
@@ -28727,7 +28734,7 @@
         <v>690</v>
       </c>
       <c r="B505" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C505">
         <v>47</v>
@@ -28780,7 +28787,7 @@
         <v>691</v>
       </c>
       <c r="B506" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C506">
         <v>25</v>
@@ -28833,7 +28840,7 @@
         <v>692</v>
       </c>
       <c r="B507" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C507">
         <v>427</v>
@@ -28886,7 +28893,7 @@
         <v>693</v>
       </c>
       <c r="B508" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C508">
         <v>157</v>
@@ -28939,7 +28946,7 @@
         <v>694</v>
       </c>
       <c r="B509" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C509">
         <v>242</v>
@@ -28992,7 +28999,7 @@
         <v>695</v>
       </c>
       <c r="B510" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C510">
         <v>1141</v>
@@ -29045,7 +29052,7 @@
         <v>696</v>
       </c>
       <c r="B511" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C511">
         <v>1370</v>
@@ -29098,7 +29105,7 @@
         <v>697</v>
       </c>
       <c r="B512" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C512">
         <v>1624</v>
@@ -29151,7 +29158,7 @@
         <v>698</v>
       </c>
       <c r="B513" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C513">
         <v>0</v>
@@ -29204,7 +29211,7 @@
         <v>699</v>
       </c>
       <c r="B514" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C514">
         <v>2</v>
@@ -29257,7 +29264,7 @@
         <v>700</v>
       </c>
       <c r="B515" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C515">
         <v>229</v>
@@ -29310,7 +29317,7 @@
         <v>701</v>
       </c>
       <c r="B516" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -29363,7 +29370,7 @@
         <v>702</v>
       </c>
       <c r="B517" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C517">
         <v>1</v>
@@ -29416,7 +29423,7 @@
         <v>703</v>
       </c>
       <c r="B518" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C518">
         <v>2985</v>
@@ -29469,7 +29476,7 @@
         <v>704</v>
       </c>
       <c r="B519" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C519">
         <v>4</v>
@@ -29522,7 +29529,7 @@
         <v>705</v>
       </c>
       <c r="B520" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C520">
         <v>4</v>
@@ -29575,7 +29582,7 @@
         <v>706</v>
       </c>
       <c r="B521" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C521">
         <v>0</v>
@@ -29628,7 +29635,7 @@
         <v>707</v>
       </c>
       <c r="B522" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C522">
         <v>305</v>
@@ -29681,7 +29688,7 @@
         <v>708</v>
       </c>
       <c r="B523" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C523">
         <v>388</v>
@@ -29734,7 +29741,7 @@
         <v>709</v>
       </c>
       <c r="B524" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C524">
         <v>229</v>
@@ -29787,7 +29794,7 @@
         <v>710</v>
       </c>
       <c r="B525" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C525">
         <v>1521</v>
@@ -29840,7 +29847,7 @@
         <v>711</v>
       </c>
       <c r="B526" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C526">
         <v>567</v>
@@ -29889,6 +29896,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>